--- a/inst/extdata/rp_neg_sample.xlsx
+++ b/inst/extdata/rp_neg_sample.xlsx
@@ -12,7 +12,160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="1278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1316">
+  <si>
+    <t xml:space="preserve">Sample_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_50</t>
+  </si>
   <si>
     <t xml:space="preserve">Injection_order</t>
   </si>
@@ -167,159 +320,6 @@
     <t xml:space="preserve">50</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_50</t>
-  </si>
-  <si>
     <t xml:space="preserve">Subject_ID</t>
   </si>
   <si>
@@ -1019,15 +1019,15 @@
     <t xml:space="preserve">neg</t>
   </si>
   <si>
+    <t xml:space="preserve">27642.4814218406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37436.8712838332</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">37436.8712838332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27987.4219895577</t>
-  </si>
-  <si>
     <t xml:space="preserve">23706.8244098492</t>
   </si>
   <si>
@@ -1055,9 +1055,6 @@
     <t xml:space="preserve">27273.4583140357</t>
   </si>
   <si>
-    <t xml:space="preserve">19624.6242101144</t>
-  </si>
-  <si>
     <t xml:space="preserve">22242.7116143047</t>
   </si>
   <si>
@@ -1070,6 +1067,9 @@
     <t xml:space="preserve">28542.2843085908</t>
   </si>
   <si>
+    <t xml:space="preserve">18556.5199541756</t>
+  </si>
+  <si>
     <t xml:space="preserve">17119.9561967062</t>
   </si>
   <si>
@@ -1082,76 +1082,85 @@
     <t xml:space="preserve">23329.3440610909</t>
   </si>
   <si>
+    <t xml:space="preserve">15757.8590372094</t>
+  </si>
+  <si>
     <t xml:space="preserve">7882.71763641985</t>
   </si>
   <si>
     <t xml:space="preserve">15154.5198408152</t>
   </si>
   <si>
-    <t xml:space="preserve">47718.3628485737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37603.6460530411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38682.7995185642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42223.0487997343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31988.653027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43073.189756416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23226.5728152377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23256.3780440154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29543.5835045818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25703.7585204954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33663.9184871529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48441.2268841419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17962.9975340798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35536.1923977464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38580.5494633313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27650.7386215423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29453.0131569368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35678.8101336676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33878.2462842212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19839.3736492113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25823.4926872419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32990.5688595065</t>
+    <t xml:space="preserve">44372.5173195351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34967.0092635232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28197.6023164304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35970.4962438145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39262.5155664951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29745.7200071917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40053.0475980342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21598.0063647213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21625.7217545881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27472.0902495793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23901.5004296595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31303.5216831472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45044.6966447082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13385.1529047511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16703.4946634919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33044.5182631924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35875.4156065943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25711.9650620829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27387.8703794998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33177.1361398224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31502.8215610087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18448.3058157698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24012.8392533438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30677.384987937</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_365_8511a5_6086</t>
@@ -1169,6 +1178,9 @@
     <t xml:space="preserve">27950.3376287766</t>
   </si>
   <si>
+    <t xml:space="preserve">33031.2979703235</t>
+  </si>
+  <si>
     <t xml:space="preserve">30040.7420886522</t>
   </si>
   <si>
@@ -1196,6 +1208,9 @@
     <t xml:space="preserve">32609.9136253806</t>
   </si>
   <si>
+    <t xml:space="preserve">39753.9254455044</t>
+  </si>
+  <si>
     <t xml:space="preserve">41087.9334397674</t>
   </si>
   <si>
@@ -1217,79 +1232,88 @@
     <t xml:space="preserve">33581.0911137686</t>
   </si>
   <si>
-    <t xml:space="preserve">49915.1359219301</t>
-  </si>
-  <si>
     <t xml:space="preserve">30574.9250739063</t>
   </si>
   <si>
     <t xml:space="preserve">33766.8542901536</t>
   </si>
   <si>
-    <t xml:space="preserve">44631.1467023511</t>
-  </si>
-  <si>
     <t xml:space="preserve">27243.9367099198</t>
   </si>
   <si>
-    <t xml:space="preserve">45367.2088767277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31512.3170274789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37232.1640583463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60410.6676245314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45507.2126076829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44622.3371507696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50043.9267860401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42637.0026066186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46428.1611105052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43843.2272261274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55620.8632413408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62727.3518689531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62832.6899034643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34089.4886096813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38654.3194772303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47281.0465044756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37723.8808606678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30004.2927173273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39234.3720607351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44719.543377736</t>
+    <t xml:space="preserve">41882.5045342414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45517.2691506067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29091.8219010135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34372.3212999606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36698.3947154613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55770.4589580536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42011.7544273189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41194.8472105423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46199.9986867773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39362.0083582927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42861.9638803638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59536.4355468925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40475.5815612015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56802.9192628564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51348.5646259115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57909.1961820041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58006.4430882449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31471.0381488192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35685.2394241866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43649.3382255041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34826.2688032939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27699.6305678571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31228.776794291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36220.7375418856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41284.586922164</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_369_5116a6_4389</t>
@@ -1322,6 +1346,9 @@
     <t xml:space="preserve">14072.1424088624</t>
   </si>
   <si>
+    <t xml:space="preserve">10516.7378375425</t>
+  </si>
+  <si>
     <t xml:space="preserve">19539.9988667153</t>
   </si>
   <si>
@@ -1334,6 +1361,12 @@
     <t xml:space="preserve">20162.3000892738</t>
   </si>
   <si>
+    <t xml:space="preserve">12364.1876571051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12658.2139566442</t>
+  </si>
+  <si>
     <t xml:space="preserve">13088.9600647364</t>
   </si>
   <si>
@@ -1367,73 +1400,70 @@
     <t xml:space="preserve">13082.4454078267</t>
   </si>
   <si>
-    <t xml:space="preserve">28648.6361619256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27441.4366102469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21571.8383007938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30768.9818780851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26772.367117968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28272.9353898369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17887.2134408097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29004.5817902986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14926.1387620179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29183.4596490732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28093.3571039713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25763.5397438612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27782.5386158335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25029.1345977861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15973.1085063367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20843.9111551779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18433.2799664881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22615.271787731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13926.1060733471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24230.8529391533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16780.5432945732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21268.8174211765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24819.5741579655</t>
+    <t xml:space="preserve">28412.3070084126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27215.0659220011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30515.161507698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26551.5157370238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28039.7054779401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17739.6577251631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28765.3163598692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14803.0096287877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28942.7186142656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27861.608574436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25551.0104107108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27553.3540991113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24822.663540692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24690.2582918843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15841.3426801753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20671.9649636957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18281.2196231501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22428.713237165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13811.2264385385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24030.9670900804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21093.3660807023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24614.8318128796</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_222_4828a6_0392</t>
@@ -1466,6 +1496,12 @@
     <t xml:space="preserve">15018.9546480983</t>
   </si>
   <si>
+    <t xml:space="preserve">12670.6878457963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11706.7551547912</t>
+  </si>
+  <si>
     <t xml:space="preserve">19199.9722476022</t>
   </si>
   <si>
@@ -1478,6 +1514,9 @@
     <t xml:space="preserve">13130.3524179237</t>
   </si>
   <si>
+    <t xml:space="preserve">18924.7570827444</t>
+  </si>
+  <si>
     <t xml:space="preserve">9466.13811335246</t>
   </si>
   <si>
@@ -1499,9 +1538,6 @@
     <t xml:space="preserve">18012.0611783239</t>
   </si>
   <si>
-    <t xml:space="preserve">11496.2991144658</t>
-  </si>
-  <si>
     <t xml:space="preserve">9339.20020835445</t>
   </si>
   <si>
@@ -1511,70 +1547,70 @@
     <t xml:space="preserve">12181.2569454206</t>
   </si>
   <si>
-    <t xml:space="preserve">19619.6894382128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18684.1913668925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12969.2209637102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16289.2118186676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16879.8450313084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15971.3678470821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19017.4959653061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11341.1743534501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23675.3470301317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11754.604991513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3551.76343614997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13858.4555411956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8497.33070489124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19614.4804245918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14433.1944594674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15584.478516133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16448.97621653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14810.0019782737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11707.1211538492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17220.3255286588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15037.346892243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12627.1427191797</t>
+    <t xml:space="preserve">21795.345258891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20659.7213947695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14340.4917320764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18011.5141889616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18664.5966467488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17660.0637156166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21028.2671887834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12540.3073556056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26178.6054297063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12997.4511318985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3927.30097921233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15323.7474836739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21688.372427681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18561.1227370035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17232.267530539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18188.1709082076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16159.6813891394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16375.9034961119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12944.9466998027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19041.0770668797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16627.2862019992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13962.24463064</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_114_84a3_0917</t>
@@ -1598,7 +1634,16 @@
     <t xml:space="preserve">42751.7620889693</t>
   </si>
   <si>
-    <t xml:space="preserve">14922.8444121779</t>
+    <t xml:space="preserve">12769.0932963405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21441.1920330802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27726.6891685737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11470.1838479579</t>
   </si>
   <si>
     <t xml:space="preserve">25622.2529974251</t>
@@ -1622,6 +1667,9 @@
     <t xml:space="preserve">18816.5253380731</t>
   </si>
   <si>
+    <t xml:space="preserve">24272.972235965</t>
+  </si>
+  <si>
     <t xml:space="preserve">22509.6304378676</t>
   </si>
   <si>
@@ -1637,82 +1685,79 @@
     <t xml:space="preserve">23405.9943364208</t>
   </si>
   <si>
+    <t xml:space="preserve">23530.4897292145</t>
+  </si>
+  <si>
     <t xml:space="preserve">17214.7739183645</t>
   </si>
   <si>
-    <t xml:space="preserve">35887.4885649194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33110.5564506584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48535.6013730046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26502.4224371912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35005.0036012765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30392.7234079405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35893.2942861777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38247.6166345981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29617.6452742883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26538.2567121145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19798.0506359623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23049.1572355595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32191.5263878794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39692.4822203327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35442.9283879987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28261.8361183763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27603.4417660266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33228.6581311066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32590.8912122733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27802.2836629447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26036.1616028479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28822.0680121137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46796.7421964219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35138.9877368424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33537.2184641823</t>
+    <t xml:space="preserve">33516.37285543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30922.9149162537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45328.8145097538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24751.385719571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32692.1943948152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28384.6513246469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33521.7949879383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35720.5653340099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27660.7832369543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24784.8523946536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18489.9772444437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21526.2805730463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37069.9674692376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33101.185132851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26394.5535004223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25779.6598012061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31033.21352212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30437.5843850237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25965.3640514306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24315.9311197468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26917.77041492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43704.8431805814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32817.3260890048</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_317_554a3_063</t>
@@ -1727,9 +1772,15 @@
     <t xml:space="preserve">17485.50725334</t>
   </si>
   <si>
+    <t xml:space="preserve">5089.05308227666</t>
+  </si>
+  <si>
     <t xml:space="preserve">17116.1804278605</t>
   </si>
   <si>
+    <t xml:space="preserve">20373.8824870109</t>
+  </si>
+  <si>
     <t xml:space="preserve">24910.0964177247</t>
   </si>
   <si>
@@ -1772,9 +1823,6 @@
     <t xml:space="preserve">19574.5699738576</t>
   </si>
   <si>
-    <t xml:space="preserve">22289.8615484244</t>
-  </si>
-  <si>
     <t xml:space="preserve">22362.1327764029</t>
   </si>
   <si>
@@ -1787,76 +1835,79 @@
     <t xml:space="preserve">28200.4753125131</t>
   </si>
   <si>
-    <t xml:space="preserve">20966.969277254</t>
-  </si>
-  <si>
     <t xml:space="preserve">21264.7924746198</t>
   </si>
   <si>
-    <t xml:space="preserve">19883.135855974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28184.748626212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31213.1944001919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16328.4890456621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25370.0372815744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20040.2047647237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26158.0017584252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18494.5361758162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23804.4006596296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23254.6446477836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28506.2757622463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28163.6902919532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26293.6009745661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20734.0750827986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26562.9892121079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13796.206925442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28427.568947103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28839.8683059652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26746.706470135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25868.6337461731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28903.2599296893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28780.1377147414</t>
+    <t xml:space="preserve">21259.8108089533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30136.2133132104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17459.0462199424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27126.616079541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21427.7549053059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27969.1378941768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19775.0668176951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25452.5774058017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24864.7572104566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30480.0024484629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30113.6969352337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28114.1257724411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22829.2190382156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22169.6676395484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32337.5105538148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28402.1659993843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14751.433136134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30395.8461055478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30836.6923799764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28598.6035319891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33874.2122274816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27659.7345264583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30904.4731333248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30772.8261428736</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_419_897a3_9617</t>
@@ -1871,12 +1922,12 @@
     <t xml:space="preserve">3.96171825833153</t>
   </si>
   <si>
-    <t xml:space="preserve">14636.4455459482</t>
-  </si>
-  <si>
     <t xml:space="preserve">21774.9038728445</t>
   </si>
   <si>
+    <t xml:space="preserve">19642.5049713281</t>
+  </si>
+  <si>
     <t xml:space="preserve">23385.1152976844</t>
   </si>
   <si>
@@ -1916,9 +1967,6 @@
     <t xml:space="preserve">12775.7368329257</t>
   </si>
   <si>
-    <t xml:space="preserve">18466.7805335524</t>
-  </si>
-  <si>
     <t xml:space="preserve">18217.7703273942</t>
   </si>
   <si>
@@ -1940,73 +1988,79 @@
     <t xml:space="preserve">21282.0897287843</t>
   </si>
   <si>
-    <t xml:space="preserve">19254.0940996763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23311.1155059779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20667.7794469146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19997.809392802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20439.6227140635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19932.4101701808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23487.4866948614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22737.555912261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23871.803821278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23809.0376989957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25673.9908464482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21311.4203624842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19964.9688228498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23766.9012528574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27847.5862036533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24105.3838456485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17572.3807133424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26321.3309674245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22282.1427621001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30007.6162124577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26590.4577657597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26036.7082565724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23277.021618629</t>
+    <t xml:space="preserve">20974.719296465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25394.2928550234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22514.7373922707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22295.137490997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21784.8960531093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22266.1916335155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21713.652486438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25586.4253001888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24769.4776123157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26005.0865888312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25936.7114271963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27968.324473563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23215.896712564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21749.1207144868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25890.8094945825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30336.1612694912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26259.5402867861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19142.7210714197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28673.5135755029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27760.6051152367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24273.3668662534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32689.2204615813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28966.6906536358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28363.4558062505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25357.1521973967</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_493_3039a6_7816</t>
@@ -2030,6 +2084,9 @@
     <t xml:space="preserve">5393.75463728238</t>
   </si>
   <si>
+    <t xml:space="preserve">6582.63129521568</t>
+  </si>
+  <si>
     <t xml:space="preserve">17523.7719353074</t>
   </si>
   <si>
@@ -2039,9 +2096,6 @@
     <t xml:space="preserve">6341.11184604922</t>
   </si>
   <si>
-    <t xml:space="preserve">7942.60813434359</t>
-  </si>
-  <si>
     <t xml:space="preserve">8587.57550635575</t>
   </si>
   <si>
@@ -2060,9 +2114,6 @@
     <t xml:space="preserve">9523.22755300373</t>
   </si>
   <si>
-    <t xml:space="preserve">11323.414784838</t>
-  </si>
-  <si>
     <t xml:space="preserve">9297.9737256012</t>
   </si>
   <si>
@@ -2072,6 +2123,9 @@
     <t xml:space="preserve">8175.17449042318</t>
   </si>
   <si>
+    <t xml:space="preserve">8747.81331871137</t>
+  </si>
+  <si>
     <t xml:space="preserve">6163.30879356464</t>
   </si>
   <si>
@@ -2087,64 +2141,76 @@
     <t xml:space="preserve">9703.57242670304</t>
   </si>
   <si>
-    <t xml:space="preserve">13049.6037954227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15533.4379985354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13705.5709946003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11953.969117847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12032.120438435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6501.45621382365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10379.3542023111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9837.05891326398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11217.9238031582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8976.20300731206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15283.2343069927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13556.4346623704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16155.3253990208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8758.39246549019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11252.4025974163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9299.49672816762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7053.66285901436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17624.5070986845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12699.9256344527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12966.31702757</t>
+    <t xml:space="preserve">15809.0497404056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18818.1110942608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16603.7265936224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14481.734107943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14576.4111674019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12574.1539306488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11917.185846948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13590.0459637259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12902.6081168173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10874.2948864355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16985.8511709798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16461.9304187701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18514.9997763356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16423.0541585596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19571.5016953343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10610.4265158989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13631.8155823259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11265.951720918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8545.21782717443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21351.3539369651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15385.4292591579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15708.1513011623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10895.9640113423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11761.4926628915</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_359_0517a7_3652</t>
@@ -2156,12 +2222,6 @@
     <t xml:space="preserve">7.36516746936832</t>
   </si>
   <si>
-    <t xml:space="preserve">18428.9399062638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26739.4038842078</t>
-  </si>
-  <si>
     <t xml:space="preserve">30294.5127873726</t>
   </si>
   <si>
@@ -2171,12 +2231,12 @@
     <t xml:space="preserve">20930.3712777309</t>
   </si>
   <si>
+    <t xml:space="preserve">25778.0445445195</t>
+  </si>
+  <si>
     <t xml:space="preserve">24157.6796300126</t>
   </si>
   <si>
-    <t xml:space="preserve">14649.016438927</t>
-  </si>
-  <si>
     <t xml:space="preserve">28396.6206832526</t>
   </si>
   <si>
@@ -2186,7 +2246,7 @@
     <t xml:space="preserve">34570.1845759278</t>
   </si>
   <si>
-    <t xml:space="preserve">26967.8060297894</t>
+    <t xml:space="preserve">25771.4265322819</t>
   </si>
   <si>
     <t xml:space="preserve">19571.6934320438</t>
@@ -2210,6 +2270,9 @@
     <t xml:space="preserve">20757.6919777388</t>
   </si>
   <si>
+    <t xml:space="preserve">23699.1763222218</t>
+  </si>
+  <si>
     <t xml:space="preserve">18765.5809203654</t>
   </si>
   <si>
@@ -2219,61 +2282,67 @@
     <t xml:space="preserve">23976.6023346318</t>
   </si>
   <si>
-    <t xml:space="preserve">30628.0375672417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35782.1105528054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30140.29599805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25398.4032449122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34015.23537387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43407.9388738479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30674.5290022372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44975.9193890624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35058.4376979419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38678.2429400129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41102.9791795878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44647.7703827711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28811.1727691483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43299.7007360237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41590.5610461094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37757.1637663902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45037.831692748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34896.2834931332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37579.9195236814</t>
+    <t xml:space="preserve">30076.3284625386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35137.5600773095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29597.3726819851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33402.5119823312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42626.0227931811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34898.2224405705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30121.9824378072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44165.7589546937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34426.9228895852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45854.2160566727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37981.5238395131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40362.5828093009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43843.5209635654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34758.3744169711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40841.3817639413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34692.3105121886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37077.0362534228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44226.5560193909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34267.6896016313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29177.6781247007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36902.9847475076</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_435_8009a6_2215</t>
@@ -2306,6 +2375,9 @@
     <t xml:space="preserve">31756.5079451862</t>
   </si>
   <si>
+    <t xml:space="preserve">41633.285547338</t>
+  </si>
+  <si>
     <t xml:space="preserve">31581.8370869055</t>
   </si>
   <si>
@@ -2321,15 +2393,24 @@
     <t xml:space="preserve">27460.7161293211</t>
   </si>
   <si>
+    <t xml:space="preserve">21372.478783314</t>
+  </si>
+  <si>
     <t xml:space="preserve">16971.9538673265</t>
   </si>
   <si>
     <t xml:space="preserve">23837.9913682881</t>
   </si>
   <si>
+    <t xml:space="preserve">17144.7220177051</t>
+  </si>
+  <si>
     <t xml:space="preserve">34430.5835174246</t>
   </si>
   <si>
+    <t xml:space="preserve">25870.7444675196</t>
+  </si>
+  <si>
     <t xml:space="preserve">40519.7819706691</t>
   </si>
   <si>
@@ -2339,85 +2420,76 @@
     <t xml:space="preserve">40312.9034818516</t>
   </si>
   <si>
-    <t xml:space="preserve">13639.1887307994</t>
-  </si>
-  <si>
     <t xml:space="preserve">23892.8043204819</t>
   </si>
   <si>
     <t xml:space="preserve">30086.0425781238</t>
   </si>
   <si>
-    <t xml:space="preserve">32470.1747207781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37131.0934977943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30635.6089953263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33058.0130151129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39076.2694743514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39600.5942409161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37493.6932967589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35697.162196553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24721.1302711989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31438.1242814152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25096.0638372473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42488.5344093364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41187.3078379904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22925.8220899758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37049.4135469896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27581.0642929886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46472.5523243268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43612.7098081776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33828.3451014316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38361.9231183806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35555.94745271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40194.8641562674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27412.0835188417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40596.1718547021</t>
+    <t xml:space="preserve">25808.1532880302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36506.6652867961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30120.4144046007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32502.0812075186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38419.1295212336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38934.6367942875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36863.1672975609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35096.84820016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24305.3986108853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30909.4339075821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41774.0108919848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40494.666859059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36426.358935871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27117.2375372557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45691.0301558477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42879.2811962806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33259.45873093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37716.7962242674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34958.0082441715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39518.912958711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26951.0984882656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39913.4719238177</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_358_2061a5_2818</t>
@@ -2435,9 +2507,6 @@
     <t xml:space="preserve">1062.90395505652</t>
   </si>
   <si>
-    <t xml:space="preserve">5395.07383244556</t>
-  </si>
-  <si>
     <t xml:space="preserve">2840.44117280979</t>
   </si>
   <si>
@@ -2453,6 +2522,9 @@
     <t xml:space="preserve">2335.30418476563</t>
   </si>
   <si>
+    <t xml:space="preserve">4632.90344312675</t>
+  </si>
+  <si>
     <t xml:space="preserve">2975.27831054304</t>
   </si>
   <si>
@@ -2462,6 +2534,9 @@
     <t xml:space="preserve">5465.52512805168</t>
   </si>
   <si>
+    <t xml:space="preserve">4784.68487664715</t>
+  </si>
+  <si>
     <t xml:space="preserve">7200.38897939023</t>
   </si>
   <si>
@@ -2471,6 +2546,9 @@
     <t xml:space="preserve">4909.61332708245</t>
   </si>
   <si>
+    <t xml:space="preserve">5125.79264201806</t>
+  </si>
+  <si>
     <t xml:space="preserve">6716.24564957935</t>
   </si>
   <si>
@@ -2489,70 +2567,73 @@
     <t xml:space="preserve">3862.53131104531</t>
   </si>
   <si>
-    <t xml:space="preserve">5914.28746223912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5914.55793816492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5321.7408726307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3184.90735866491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3111.60152640064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4052.05682331263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7558.12464726055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6462.43535773832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4556.58015105912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6097.84752946741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6392.65631178617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5633.74682526173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3540.09405210191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7865.1797786597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3359.0092481085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6261.64441628628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7120.7515511237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5203.46982652049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4002.51623985381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5832.52355425532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4991.5141987485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4522.65288819694</t>
+    <t xml:space="preserve">10850.8900852207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10851.3863249724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9763.75017948149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5708.82737228258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7434.27225841805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8745.12571531122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11856.572105664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8359.91667623847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11187.6660918398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11728.5491168065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10336.1846983563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6494.97876049442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7814.12798772009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14430.1746953683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6162.74409709977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11488.1827688733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13064.3789127145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9546.75935348602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7343.3805949165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10700.878577641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9157.88626698457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8223.42170395698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8297.67063179773</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_397_2502a3_7998</t>
@@ -2579,9 +2660,6 @@
     <t xml:space="preserve">12252.3646663683</t>
   </si>
   <si>
-    <t xml:space="preserve">20357.4877099059</t>
-  </si>
-  <si>
     <t xml:space="preserve">13726.3833263548</t>
   </si>
   <si>
@@ -2597,6 +2675,9 @@
     <t xml:space="preserve">26639.268189766</t>
   </si>
   <si>
+    <t xml:space="preserve">19958.3530802659</t>
+  </si>
+  <si>
     <t xml:space="preserve">20674.6147108247</t>
   </si>
   <si>
@@ -2615,6 +2696,9 @@
     <t xml:space="preserve">20157.3894140348</t>
   </si>
   <si>
+    <t xml:space="preserve">10366.4349576756</t>
+  </si>
+  <si>
     <t xml:space="preserve">18104.3114807314</t>
   </si>
   <si>
@@ -2630,76 +2714,76 @@
     <t xml:space="preserve">18840.3763961833</t>
   </si>
   <si>
-    <t xml:space="preserve">32497.5495454758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35066.6041610037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22979.2583446689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21146.0952580741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37894.4091432301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29583.4414548602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24974.660758176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25364.655111126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24731.7191116643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21747.358454425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17949.2570541071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30322.7799487877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33944.5679508428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19381.9543921489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21742.1503747881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26236.9991779132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21483.8778966535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23898.1213497587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25002.5013338805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34110.6027388416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21302.0038208554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31925.2976679331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34579.1417657019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25778.8324033872</t>
+    <t xml:space="preserve">31134.7104906686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22015.5847397162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20259.2984110058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27717.3421231218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36305.2437611767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28342.8103933131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23927.306618007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24300.9459059509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23694.5531354811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20835.3466302994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17196.5249601417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29051.1434918081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32521.0457607396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18569.1397407812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20830.3569601866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25136.7067663095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20582.915570085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22895.9136889504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23953.9796526382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32680.1176024022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20408.6686876298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30586.456952041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33129.0076620808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24697.753981228</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_165_9294a3_4261</t>
@@ -2717,7 +2801,13 @@
     <t xml:space="preserve">29397.3908904667</t>
   </si>
   <si>
-    <t xml:space="preserve">15225.4507267512</t>
+    <t xml:space="preserve">15299.9821151484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21085.7597435459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21096.5640074637</t>
   </si>
   <si>
     <t xml:space="preserve">19266.2392202878</t>
@@ -2759,6 +2849,9 @@
     <t xml:space="preserve">17582.8385265758</t>
   </si>
   <si>
+    <t xml:space="preserve">19361.0695316987</t>
+  </si>
+  <si>
     <t xml:space="preserve">15959.274403828</t>
   </si>
   <si>
@@ -2774,76 +2867,73 @@
     <t xml:space="preserve">16869.3832051593</t>
   </si>
   <si>
-    <t xml:space="preserve">20704.3877863077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20912.1359590865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20552.1529744611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25968.3313170624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23181.9613049236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22924.4420907661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21349.6640211987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19514.8456482426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25938.5965942094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23522.9075406827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25306.1654121342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25276.1541265583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29359.7586078213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30328.4182601355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25109.3218956682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26070.8447268955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31582.8753995564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21188.3476833595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27867.1789758124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27762.8107210809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27908.1133530325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19733.6633422794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31855.1600296893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23028.693140528</t>
+    <t xml:space="preserve">22080.8488876975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22302.4084941525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21918.4932599665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27694.7478764344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24723.1354907768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22769.024127676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24140.1051202835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20812.2240692649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27663.0363412366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25086.7483823207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26988.5601139073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26956.5536296506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32344.7004333937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26778.6301229088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27804.0765431329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33682.5559071965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22596.9832194537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29719.8339908543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29608.5271661761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29763.4897515093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21045.5891166089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33972.9424588039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24559.6778115523</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_413_1764a3_6741</t>
@@ -2858,24 +2948,18 @@
     <t xml:space="preserve">14353.0538404004</t>
   </si>
   <si>
-    <t xml:space="preserve">20228.4254317031</t>
-  </si>
-  <si>
     <t xml:space="preserve">18387.1553217482</t>
   </si>
   <si>
     <t xml:space="preserve">11915.7356213421</t>
   </si>
   <si>
+    <t xml:space="preserve">14801.0985065764</t>
+  </si>
+  <si>
     <t xml:space="preserve">18811.7336318192</t>
   </si>
   <si>
-    <t xml:space="preserve">17317.9679547199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28113.0171362387</t>
-  </si>
-  <si>
     <t xml:space="preserve">13239.2587971878</t>
   </si>
   <si>
@@ -2894,15 +2978,18 @@
     <t xml:space="preserve">19225.1431314071</t>
   </si>
   <si>
-    <t xml:space="preserve">18603.4140895207</t>
-  </si>
-  <si>
     <t xml:space="preserve">15492.4458153935</t>
   </si>
   <si>
+    <t xml:space="preserve">24315.3868431561</t>
+  </si>
+  <si>
     <t xml:space="preserve">17387.1449124654</t>
   </si>
   <si>
+    <t xml:space="preserve">17332.351281653</t>
+  </si>
+  <si>
     <t xml:space="preserve">14239.2203766311</t>
   </si>
   <si>
@@ -2921,73 +3008,76 @@
     <t xml:space="preserve">19045.0513747193</t>
   </si>
   <si>
-    <t xml:space="preserve">18748.1347816792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23460.8866819639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17422.6567780904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25549.7836376802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29572.0717040634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21238.6526538489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23127.9729597217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25760.5332798418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23730.9081355964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27257.906053765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26660.7925343244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22681.0853357813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26482.8583020896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22308.5223044725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27758.8736226722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33717.9371835401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26549.5926234271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24132.2236703068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24829.30465854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24372.6575684644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31346.3731256096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34745.4399539722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28545.5723207267</t>
+    <t xml:space="preserve">19626.7977457798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24560.4207141466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18239.19897951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26747.2173496007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30958.0167316978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22234.0379394598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24211.9044286956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26967.8441292708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24843.0971787219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28535.3938042682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27910.2955524259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23744.0726623729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27724.0221322275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23354.0488360989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29059.8400634099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35298.1851908245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25263.221042974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25992.9719076762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25514.9232813738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32815.4737825596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36373.8436119602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29883.4087230865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34327.4826104682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27536.1692051476</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_115_4062a7_7329</t>
@@ -3053,6 +3143,9 @@
     <t xml:space="preserve">19254.5512585687</t>
   </si>
   <si>
+    <t xml:space="preserve">31161.7798065572</t>
+  </si>
+  <si>
     <t xml:space="preserve">24313.7701359299</t>
   </si>
   <si>
@@ -3071,76 +3164,79 @@
     <t xml:space="preserve">25307.7600614963</t>
   </si>
   <si>
-    <t xml:space="preserve">27628.2894326043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30639.9095708206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41063.0451530806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48058.3017773404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36755.6403313626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40256.6389073416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35017.807446989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37384.8440875701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37383.6423723538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40423.8376434036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26232.9880547436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45486.184716169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42069.5793654809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41104.3140993254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33983.7837356381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46545.4573358702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45130.4683434802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33471.0041393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42097.3252301383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39151.8955278938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38413.4824376428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37007.7001535769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31324.1837308503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41902.8760852857</t>
+    <t xml:space="preserve">26387.8430772246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29264.2484301263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39219.4093092769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45900.5950749092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35105.3970110186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38449.2088406246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33445.5888075771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35706.3509724611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35705.2032114812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38608.9007397802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25055.1875071344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43443.9601264442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40180.7524613192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37515.142754622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39258.8253751947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32457.9903715676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44455.6738531611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43104.2145969422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31968.2333943001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40207.2526007653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37394.0658862052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36688.8058374699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35346.1399296451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29917.8002615095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40021.5337732068</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_300_1295a1_6959</t>
@@ -3164,13 +3260,16 @@
     <t xml:space="preserve">20980.8270011831</t>
   </si>
   <si>
+    <t xml:space="preserve">24274.6943942944</t>
+  </si>
+  <si>
     <t xml:space="preserve">22977.0232072958</t>
   </si>
   <si>
     <t xml:space="preserve">17577.2471325449</t>
   </si>
   <si>
-    <t xml:space="preserve">23818.9497253351</t>
+    <t xml:space="preserve">21356.9032057886</t>
   </si>
   <si>
     <t xml:space="preserve">13384.4239273953</t>
@@ -3197,9 +3296,6 @@
     <t xml:space="preserve">20459.0548312686</t>
   </si>
   <si>
-    <t xml:space="preserve">17996.9320936438</t>
-  </si>
-  <si>
     <t xml:space="preserve">33044.9314783291</t>
   </si>
   <si>
@@ -3218,73 +3314,79 @@
     <t xml:space="preserve">15745.2356849005</t>
   </si>
   <si>
-    <t xml:space="preserve">36991.457257151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23938.0414819514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30007.6571064847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26183.7828326342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23611.8684597237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35634.5970295263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27608.7809554786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41208.91066206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33393.5812223903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22779.962719914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28560.018927939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21221.9613447637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25212.7715280209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10914.0823635517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19117.8785000534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26070.2960110309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29858.8114536407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14859.9577707766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26165.7015882967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21546.8255121651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32953.6004866447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19087.0879075203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24941.4948788626</t>
+    <t xml:space="preserve">35678.1765398773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23088.1866609044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28942.3171504361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25254.1990949529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22773.5935215023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34369.4879309209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26628.6065491499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39745.9007736924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32208.0332728945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21971.2223241976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27546.0734139168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20468.5335351194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24317.6608962175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36349.7044438787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10526.6076605372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18439.1504084628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19172.5509579556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25144.7413131747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28798.7558562041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14332.3955321711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25236.7597758407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20781.8642870131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31783.6728521911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18409.4529518709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24056.0151840052</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_177_6084a5_2913</t>
@@ -3296,6 +3398,9 @@
     <t xml:space="preserve">5.29132691747509</t>
   </si>
   <si>
+    <t xml:space="preserve">3844.44636769275</t>
+  </si>
+  <si>
     <t xml:space="preserve">3591.61903660696</t>
   </si>
   <si>
@@ -3329,13 +3434,19 @@
     <t xml:space="preserve">3415.0742344326</t>
   </si>
   <si>
+    <t xml:space="preserve">4322.34066391012</t>
+  </si>
+  <si>
     <t xml:space="preserve">6900.56332671817</t>
   </si>
   <si>
+    <t xml:space="preserve">4445.03683616122</t>
+  </si>
+  <si>
     <t xml:space="preserve">4984.28820441606</t>
   </si>
   <si>
-    <t xml:space="preserve">7031.36555583606</t>
+    <t xml:space="preserve">4622.96999587518</t>
   </si>
   <si>
     <t xml:space="preserve">4757.41466752455</t>
@@ -3359,76 +3470,67 @@
     <t xml:space="preserve">5516.60990176258</t>
   </si>
   <si>
-    <t xml:space="preserve">4618.483504941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7196.34654802732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5970.38182656186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5630.6516974335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5891.23812639023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5596.69767627903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6798.82805749866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4859.40151379094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3751.86068718861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5746.40512762736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5077.91186395667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6666.92622287859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4614.36720772452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4708.83318683446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6256.88197000592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5642.39204734771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6155.81966818124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7012.28887518007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6663.91995354617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5067.77264974118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7262.96677352201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6373.65371331821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6325.58871540019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6646.11727064636</t>
+    <t xml:space="preserve">10494.7522001491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10204.5072183541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13191.5171679842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12440.8858078691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13016.6497122869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12365.8646340158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15021.9633598063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10736.8138851876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8289.71012318564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12696.6422077131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11219.6109858303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14730.5271725699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10195.4122882513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13824.5372445324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12466.8260294413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13601.240790757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15493.6035535053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16047.4746283669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14082.543600137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13976.3443211573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14684.549937178</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_134_1196a2_9606</t>
@@ -3455,6 +3557,9 @@
     <t xml:space="preserve">12673.4055723762</t>
   </si>
   <si>
+    <t xml:space="preserve">8298.79894094369</t>
+  </si>
+  <si>
     <t xml:space="preserve">7964.49208199807</t>
   </si>
   <si>
@@ -3476,6 +3581,9 @@
     <t xml:space="preserve">13382.5128282943</t>
   </si>
   <si>
+    <t xml:space="preserve">11655.121983225</t>
+  </si>
+  <si>
     <t xml:space="preserve">9029.11857456402</t>
   </si>
   <si>
@@ -3485,6 +3593,12 @@
     <t xml:space="preserve">11360.7405872681</t>
   </si>
   <si>
+    <t xml:space="preserve">10370.0508910602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9088.74190577176</t>
+  </si>
+  <si>
     <t xml:space="preserve">12702.8927446251</t>
   </si>
   <si>
@@ -3494,73 +3608,67 @@
     <t xml:space="preserve">10628.6621627833</t>
   </si>
   <si>
-    <t xml:space="preserve">8517.444628103</t>
-  </si>
-  <si>
     <t xml:space="preserve">11020.4499071491</t>
   </si>
   <si>
-    <t xml:space="preserve">8984.25134588948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9875.86502576655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14315.7416907678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17579.3477731385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12829.660649603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16788.0942914617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11999.1195983878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14256.6683294512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8719.11024836859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15526.1038934886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14166.1579551549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12773.1305592998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14999.744534631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16743.7326364405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13326.8874810401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14329.6838772232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17705.3589181409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14746.4377471245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11994.0615055415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16795.8464805707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16911.0493756922</t>
+    <t xml:space="preserve">15068.1101898055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19318.712084838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23722.8615606773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17313.285304365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21500.6133485848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22655.0860636874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16192.4922787817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23362.5005882299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19238.9941572719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11766.2070301828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20952.0636371235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17236.9994532868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21113.5604528565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20241.7557029221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22595.2211918928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17984.2796688124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19337.5266940831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23892.9102443128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19899.9249404874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22821.0106747152</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_139_4456a4_1251</t>
@@ -3605,27 +3713,27 @@
     <t xml:space="preserve">31497.58182</t>
   </si>
   <si>
-    <t xml:space="preserve">18818.4001375906</t>
-  </si>
-  <si>
     <t xml:space="preserve">21671.9937060921</t>
   </si>
   <si>
-    <t xml:space="preserve">17011.6557422926</t>
+    <t xml:space="preserve">14579.326582004</t>
   </si>
   <si>
     <t xml:space="preserve">19964.3359648765</t>
   </si>
   <si>
+    <t xml:space="preserve">25745.6639326847</t>
+  </si>
+  <si>
     <t xml:space="preserve">18911.4655247206</t>
   </si>
   <si>
-    <t xml:space="preserve">20819.852220663</t>
-  </si>
-  <si>
     <t xml:space="preserve">26254.5616712823</t>
   </si>
   <si>
+    <t xml:space="preserve">22899.6311025714</t>
+  </si>
+  <si>
     <t xml:space="preserve">27303.8015926009</t>
   </si>
   <si>
@@ -3638,64 +3746,70 @@
     <t xml:space="preserve">26536.2589152617</t>
   </si>
   <si>
-    <t xml:space="preserve">17268.6396114765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22946.0254744098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31436.2551566676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14313.6833612067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27701.0779216145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31113.459677606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21966.017969293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19953.0832118046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26172.7216079079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16938.2821312223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21034.5824653101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33848.5322312987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30334.5703055571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25276.57612343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21222.388150075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25456.3796456185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29024.2146316698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18519.4464705246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32177.2851116985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23427.6259950499</t>
+    <t xml:space="preserve">18382.522447756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33463.9947959061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15236.9620084367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29487.8866070433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22421.9923435594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30099.9872554885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23382.8968287684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21240.1213005325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27860.9463918912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18030.8558467273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22391.3807368336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36031.8715060751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21814.1705597235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32291.2477259844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26906.9966393049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32813.463112464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22591.3004927426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27098.3980673953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30896.369893583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23981.8975469411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34252.8235681368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24938.7832765602</t>
   </si>
   <si>
     <t xml:space="preserve">RP_neg_385_6867a4_136</t>
@@ -3779,73 +3893,73 @@
     <t xml:space="preserve">10083.2042371394</t>
   </si>
   <si>
-    <t xml:space="preserve">14505.4452294528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15842.1933174344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12183.859487491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19372.6727421945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18955.3754632107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22145.1909928388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21412.4004824685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18315.6501132392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16991.3603852537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16385.7245211674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16003.4658651566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15574.6997304171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19858.4104027253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15705.6207619469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18892.9232701047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19130.7440124248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16125.5771060179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23579.8367599004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20398.2177294582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17373.6755898518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18234.8635004445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16208.9092434966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19718.9591809247</t>
+    <t xml:space="preserve">19212.0370863622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14775.5273299879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23493.4961168164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26855.7656199524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25967.100889023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20430.4928721021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22211.6308130857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20605.6471681855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19871.1845563165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19407.6144351402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18887.6440802192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24082.5565935681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19046.4137444151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22911.6975952815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19462.2568916193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19555.7003498289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28595.5794910688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24737.1880686978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21069.2858665807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22113.6598206862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23927.7056119609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19656.7583336351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23913.4422549604</t>
   </si>
 </sst>
 </file>
@@ -4540,49 +4654,49 @@
         <v>110</v>
       </c>
       <c r="R3" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="S3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="T3" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="U3" t="s">
         <v>103</v>
       </c>
       <c r="V3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="W3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="Z3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="AA3" t="s">
         <v>103</v>
       </c>
       <c r="AB3" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s">
         <v>103</v>
@@ -4615,49 +4729,49 @@
         <v>110</v>
       </c>
       <c r="AQ3" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="AR3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="AS3" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="AT3" t="s">
         <v>103</v>
       </c>
       <c r="AU3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="AV3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="AW3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="AX3" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="AY3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="AZ3" t="s">
         <v>103</v>
       </c>
       <c r="BA3" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="BB3" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="BC3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="BD3" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="BE3" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="BF3" t="s">
         <v>103</v>
@@ -6033,22 +6147,22 @@
         <v>346</v>
       </c>
       <c r="U12" t="s">
+        <v>337</v>
+      </c>
+      <c r="V12" t="s">
         <v>347</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>348</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>349</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>350</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>351</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>335</v>
       </c>
       <c r="AA12" t="s">
         <v>352</v>
@@ -6063,93 +6177,93 @@
         <v>355</v>
       </c>
       <c r="AE12" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="AF12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AH12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AI12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AJ12" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="AK12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AL12" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AM12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AN12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AO12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AP12" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AQ12" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AR12" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AS12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AT12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AU12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AV12" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="AW12" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AX12" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AY12" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AZ12" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="BA12" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="BB12" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="BC12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="BD12" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="BE12" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="BF12" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B13" t="s">
         <v>330</v>
@@ -6158,10 +6272,10 @@
         <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E13" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F13" t="s">
         <v>333</v>
@@ -6171,159 +6285,159 @@
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J13" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K13" t="s">
-        <v>335</v>
+        <v>388</v>
       </c>
       <c r="L13" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M13" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="N13" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="O13" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P13" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q13" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="R13" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="S13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="T13" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="U13" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="V13" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="W13" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="X13" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Y13" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Z13" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="AA13" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="AB13" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="AC13" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="AD13" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AE13" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AF13" t="s">
-        <v>404</v>
+        <v>337</v>
       </c>
       <c r="AG13" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AH13" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AI13" t="s">
-        <v>335</v>
+        <v>410</v>
       </c>
       <c r="AJ13" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AK13" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AL13" t="s">
-        <v>335</v>
+        <v>413</v>
       </c>
       <c r="AM13" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="AN13" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="AO13" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="AP13" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="AQ13" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="AR13" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="AS13" t="s">
-        <v>335</v>
+        <v>420</v>
       </c>
       <c r="AT13" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="AU13" t="s">
-        <v>335</v>
+        <v>422</v>
       </c>
       <c r="AV13" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AW13" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="AX13" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="AY13" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="AZ13" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="BA13" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="BB13" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="BC13" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="BD13" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="BE13" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="BF13" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B14" t="s">
         <v>330</v>
@@ -6332,10 +6446,10 @@
         <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="E14" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="F14" t="s">
         <v>333</v>
@@ -6345,159 +6459,159 @@
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="J14" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="K14" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="L14" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="M14" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="N14" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="O14" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="P14" t="s">
-        <v>335</v>
+        <v>444</v>
       </c>
       <c r="Q14" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="R14" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="S14" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="T14" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="U14" t="s">
-        <v>335</v>
+        <v>449</v>
       </c>
       <c r="V14" t="s">
-        <v>335</v>
+        <v>450</v>
       </c>
       <c r="W14" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="X14" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="Y14" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="Z14" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="AA14" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="AB14" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="AC14" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="AD14" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="AE14" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="AF14" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="AG14" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="AH14" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="AI14" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="AJ14" t="s">
-        <v>453</v>
+        <v>337</v>
       </c>
       <c r="AK14" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="AL14" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AM14" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AN14" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AO14" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AP14" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AQ14" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="AR14" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AS14" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="AT14" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="AU14" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="AV14" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="AW14" t="s">
-        <v>335</v>
+        <v>475</v>
       </c>
       <c r="AX14" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="AY14" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="AZ14" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="BA14" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="BB14" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="BC14" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="BD14" t="s">
-        <v>471</v>
+        <v>337</v>
       </c>
       <c r="BE14" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="BF14" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="B15" t="s">
         <v>330</v>
@@ -6506,10 +6620,10 @@
         <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="E15" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F15" t="s">
         <v>333</v>
@@ -6519,159 +6633,159 @@
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="J15" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="K15" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="L15" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="M15" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="N15" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="O15" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="P15" t="s">
-        <v>335</v>
+        <v>494</v>
       </c>
       <c r="Q15" t="s">
-        <v>335</v>
+        <v>495</v>
       </c>
       <c r="R15" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="S15" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="T15" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="U15" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="V15" t="s">
-        <v>335</v>
+        <v>500</v>
       </c>
       <c r="W15" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="X15" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="Y15" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="Z15" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="AA15" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="AB15" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="AC15" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="AD15" t="s">
-        <v>495</v>
+        <v>337</v>
       </c>
       <c r="AE15" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="AF15" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="AG15" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="AH15" t="s">
-        <v>499</v>
+        <v>337</v>
       </c>
       <c r="AI15" t="s">
-        <v>335</v>
+        <v>511</v>
       </c>
       <c r="AJ15" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="AK15" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="AL15" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="AM15" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="AN15" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="AO15" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="AP15" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="AQ15" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="AR15" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="AS15" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="AT15" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="AU15" t="s">
-        <v>511</v>
+        <v>337</v>
       </c>
       <c r="AV15" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="AW15" t="s">
-        <v>335</v>
+        <v>524</v>
       </c>
       <c r="AX15" t="s">
-        <v>513</v>
+        <v>337</v>
       </c>
       <c r="AY15" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="AZ15" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="BA15" t="s">
-        <v>335</v>
+        <v>527</v>
       </c>
       <c r="BB15" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="BC15" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="BD15" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="BE15" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="BF15" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B16" t="s">
         <v>330</v>
@@ -6680,10 +6794,10 @@
         <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="E16" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="F16" t="s">
         <v>333</v>
@@ -6693,159 +6807,159 @@
       </c>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="J16" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="K16" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="L16" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="M16" t="s">
-        <v>335</v>
+        <v>540</v>
       </c>
       <c r="N16" t="s">
-        <v>528</v>
+        <v>337</v>
       </c>
       <c r="O16" t="s">
-        <v>335</v>
+        <v>541</v>
       </c>
       <c r="P16" t="s">
-        <v>335</v>
+        <v>542</v>
       </c>
       <c r="Q16" t="s">
-        <v>335</v>
+        <v>543</v>
       </c>
       <c r="R16" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="S16" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="T16" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="U16" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="V16" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="W16" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="X16" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="Y16" t="s">
-        <v>335</v>
+        <v>551</v>
       </c>
       <c r="Z16" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AA16" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="AB16" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="AC16" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="AD16" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="AE16" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="AF16" t="s">
-        <v>335</v>
+        <v>557</v>
       </c>
       <c r="AG16" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="AH16" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="AI16" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="AJ16" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="AK16" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="AL16" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="AM16" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="AN16" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="AO16" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="AP16" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="AQ16" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="AR16" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="AS16" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="AT16" t="s">
-        <v>554</v>
+        <v>337</v>
       </c>
       <c r="AU16" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="AV16" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="AW16" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="AX16" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="AY16" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="AZ16" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="BA16" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="BB16" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="BC16" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="BD16" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="BE16" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="BF16" t="s">
-        <v>566</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="B17" t="s">
         <v>330</v>
@@ -6854,10 +6968,10 @@
         <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="E17" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="F17" t="s">
         <v>333</v>
@@ -6867,171 +6981,171 @@
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="J17" t="s">
-        <v>335</v>
+        <v>586</v>
       </c>
       <c r="K17" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="L17" t="s">
-        <v>335</v>
+        <v>588</v>
       </c>
       <c r="M17" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="N17" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="O17" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="P17" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="Q17" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="R17" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="S17" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="T17" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="U17" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="V17" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="W17" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="X17" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="Y17" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="Z17" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="AA17" t="s">
-        <v>586</v>
+        <v>337</v>
       </c>
       <c r="AB17" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="AC17" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="AD17" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="AE17" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="AF17" t="s">
-        <v>591</v>
+        <v>337</v>
       </c>
       <c r="AG17" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="AH17" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="AI17" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="AJ17" t="s">
-        <v>595</v>
+        <v>337</v>
       </c>
       <c r="AK17" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="AL17" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="AM17" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="AN17" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="AO17" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="AP17" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="AQ17" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="AR17" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="AS17" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="AT17" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="AU17" t="s">
-        <v>335</v>
+        <v>620</v>
       </c>
       <c r="AV17" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="AW17" t="s">
-        <v>335</v>
+        <v>622</v>
       </c>
       <c r="AX17" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="AY17" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="AZ17" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="BA17" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="BB17" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="BC17" t="s">
-        <v>335</v>
+        <v>628</v>
       </c>
       <c r="BD17" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="BE17" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="BF17" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="B18" t="s">
         <v>330</v>
       </c>
       <c r="C18" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="D18" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="E18" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="F18" t="s">
         <v>333</v>
@@ -7041,159 +7155,159 @@
       </c>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J18" t="s">
-        <v>619</v>
+        <v>337</v>
       </c>
       <c r="K18" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="L18" t="s">
-        <v>335</v>
+        <v>637</v>
       </c>
       <c r="M18" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="N18" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="O18" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="P18" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="Q18" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="R18" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="S18" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="T18" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="U18" t="s">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="V18" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="W18" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="X18" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="Y18" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="Z18" t="s">
-        <v>634</v>
+        <v>337</v>
       </c>
       <c r="AA18" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="AB18" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="AC18" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="AD18" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="AE18" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="AF18" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="AG18" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="AH18" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="AI18" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="AJ18" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="AK18" t="s">
-        <v>335</v>
+        <v>661</v>
       </c>
       <c r="AL18" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="AM18" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="AN18" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="AO18" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="AP18" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="AQ18" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="AR18" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="AS18" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="AT18" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="AU18" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="AV18" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="AW18" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="AX18" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="AY18" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="AZ18" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
       <c r="BA18" t="s">
-        <v>335</v>
+        <v>677</v>
       </c>
       <c r="BB18" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="BC18" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="BD18" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="BE18" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="BF18" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="B19" t="s">
         <v>330</v>
@@ -7202,10 +7316,10 @@
         <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="E19" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="F19" t="s">
         <v>333</v>
@@ -7215,159 +7329,159 @@
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="J19" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="K19" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="L19" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="M19" t="s">
-        <v>335</v>
+        <v>690</v>
       </c>
       <c r="N19" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="O19" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="P19" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="Q19" t="s">
-        <v>675</v>
+        <v>337</v>
       </c>
       <c r="R19" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="S19" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="T19" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="U19" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="V19" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="W19" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="X19" t="s">
-        <v>682</v>
+        <v>337</v>
       </c>
       <c r="Y19" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="Z19" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="AA19" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="AB19" t="s">
-        <v>335</v>
+        <v>703</v>
       </c>
       <c r="AC19" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="AD19" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="AE19" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="AF19" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="AG19" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="AH19" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="AI19" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="AJ19" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="AK19" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="AL19" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="AM19" t="s">
-        <v>696</v>
+        <v>337</v>
       </c>
       <c r="AN19" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="AO19" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="AP19" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="AQ19" t="s">
-        <v>335</v>
+        <v>717</v>
       </c>
       <c r="AR19" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="AS19" t="s">
-        <v>335</v>
+        <v>719</v>
       </c>
       <c r="AT19" t="s">
-        <v>335</v>
+        <v>720</v>
       </c>
       <c r="AU19" t="s">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="AV19" t="s">
-        <v>702</v>
+        <v>722</v>
       </c>
       <c r="AW19" t="s">
-        <v>703</v>
+        <v>723</v>
       </c>
       <c r="AX19" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="AY19" t="s">
-        <v>705</v>
+        <v>725</v>
       </c>
       <c r="AZ19" t="s">
-        <v>706</v>
+        <v>726</v>
       </c>
       <c r="BA19" t="s">
-        <v>707</v>
+        <v>727</v>
       </c>
       <c r="BB19" t="s">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c r="BC19" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="BD19" t="s">
-        <v>710</v>
+        <v>730</v>
       </c>
       <c r="BE19" t="s">
-        <v>335</v>
+        <v>731</v>
       </c>
       <c r="BF19" t="s">
-        <v>335</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="B20" t="s">
         <v>330</v>
@@ -7376,10 +7490,10 @@
         <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
       <c r="E20" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
       <c r="F20" t="s">
         <v>333</v>
@@ -7389,171 +7503,171 @@
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>714</v>
+        <v>337</v>
       </c>
       <c r="J20" t="s">
-        <v>715</v>
+        <v>337</v>
       </c>
       <c r="K20" t="s">
-        <v>716</v>
+        <v>736</v>
       </c>
       <c r="L20" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="M20" t="s">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c r="N20" t="s">
-        <v>335</v>
+        <v>739</v>
       </c>
       <c r="O20" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="P20" t="s">
-        <v>720</v>
+        <v>337</v>
       </c>
       <c r="Q20" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="R20" t="s">
-        <v>721</v>
+        <v>741</v>
       </c>
       <c r="S20" t="s">
-        <v>722</v>
+        <v>742</v>
       </c>
       <c r="T20" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
       <c r="U20" t="s">
-        <v>335</v>
+        <v>744</v>
       </c>
       <c r="V20" t="s">
-        <v>724</v>
+        <v>337</v>
       </c>
       <c r="W20" t="s">
-        <v>725</v>
+        <v>745</v>
       </c>
       <c r="X20" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="Y20" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
       <c r="Z20" t="s">
-        <v>728</v>
+        <v>748</v>
       </c>
       <c r="AA20" t="s">
-        <v>729</v>
+        <v>749</v>
       </c>
       <c r="AB20" t="s">
-        <v>730</v>
+        <v>750</v>
       </c>
       <c r="AC20" t="s">
-        <v>731</v>
+        <v>751</v>
       </c>
       <c r="AD20" t="s">
-        <v>335</v>
+        <v>752</v>
       </c>
       <c r="AE20" t="s">
-        <v>732</v>
+        <v>753</v>
       </c>
       <c r="AF20" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
       <c r="AG20" t="s">
-        <v>734</v>
+        <v>755</v>
       </c>
       <c r="AH20" t="s">
-        <v>735</v>
+        <v>756</v>
       </c>
       <c r="AI20" t="s">
-        <v>736</v>
+        <v>757</v>
       </c>
       <c r="AJ20" t="s">
-        <v>737</v>
+        <v>758</v>
       </c>
       <c r="AK20" t="s">
-        <v>738</v>
+        <v>337</v>
       </c>
       <c r="AL20" t="s">
-        <v>739</v>
+        <v>759</v>
       </c>
       <c r="AM20" t="s">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="AN20" t="s">
-        <v>335</v>
+        <v>761</v>
       </c>
       <c r="AO20" t="s">
-        <v>741</v>
+        <v>762</v>
       </c>
       <c r="AP20" t="s">
-        <v>742</v>
+        <v>763</v>
       </c>
       <c r="AQ20" t="s">
-        <v>743</v>
+        <v>764</v>
       </c>
       <c r="AR20" t="s">
-        <v>335</v>
+        <v>765</v>
       </c>
       <c r="AS20" t="s">
-        <v>744</v>
+        <v>766</v>
       </c>
       <c r="AT20" t="s">
-        <v>745</v>
+        <v>767</v>
       </c>
       <c r="AU20" t="s">
-        <v>746</v>
+        <v>768</v>
       </c>
       <c r="AV20" t="s">
-        <v>335</v>
+        <v>769</v>
       </c>
       <c r="AW20" t="s">
-        <v>747</v>
+        <v>337</v>
       </c>
       <c r="AX20" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AY20" t="s">
-        <v>748</v>
+        <v>337</v>
       </c>
       <c r="AZ20" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
       <c r="BA20" t="s">
-        <v>335</v>
+        <v>771</v>
       </c>
       <c r="BB20" t="s">
-        <v>750</v>
+        <v>772</v>
       </c>
       <c r="BC20" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="BD20" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
       <c r="BE20" t="s">
-        <v>335</v>
+        <v>775</v>
       </c>
       <c r="BF20" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>754</v>
+        <v>777</v>
       </c>
       <c r="B21" t="s">
         <v>330</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>755</v>
+        <v>778</v>
       </c>
       <c r="E21" t="s">
-        <v>756</v>
+        <v>779</v>
       </c>
       <c r="F21" t="s">
         <v>333</v>
@@ -7563,171 +7677,171 @@
       </c>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>757</v>
+        <v>780</v>
       </c>
       <c r="J21" t="s">
-        <v>758</v>
+        <v>781</v>
       </c>
       <c r="K21" t="s">
-        <v>759</v>
+        <v>782</v>
       </c>
       <c r="L21" t="s">
-        <v>760</v>
+        <v>783</v>
       </c>
       <c r="M21" t="s">
-        <v>761</v>
+        <v>784</v>
       </c>
       <c r="N21" t="s">
-        <v>762</v>
+        <v>785</v>
       </c>
       <c r="O21" t="s">
-        <v>763</v>
+        <v>786</v>
       </c>
       <c r="P21" t="s">
-        <v>335</v>
+        <v>787</v>
       </c>
       <c r="Q21" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="R21" t="s">
-        <v>765</v>
+        <v>789</v>
       </c>
       <c r="S21" t="s">
-        <v>766</v>
+        <v>790</v>
       </c>
       <c r="T21" t="s">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="U21" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
       <c r="V21" t="s">
-        <v>335</v>
+        <v>793</v>
       </c>
       <c r="W21" t="s">
-        <v>769</v>
+        <v>794</v>
       </c>
       <c r="X21" t="s">
-        <v>770</v>
+        <v>795</v>
       </c>
       <c r="Y21" t="s">
-        <v>335</v>
+        <v>796</v>
       </c>
       <c r="Z21" t="s">
-        <v>771</v>
+        <v>797</v>
       </c>
       <c r="AA21" t="s">
-        <v>335</v>
+        <v>798</v>
       </c>
       <c r="AB21" t="s">
-        <v>772</v>
+        <v>799</v>
       </c>
       <c r="AC21" t="s">
-        <v>773</v>
+        <v>800</v>
       </c>
       <c r="AD21" t="s">
-        <v>774</v>
+        <v>801</v>
       </c>
       <c r="AE21" t="s">
-        <v>775</v>
+        <v>337</v>
       </c>
       <c r="AF21" t="s">
-        <v>776</v>
+        <v>802</v>
       </c>
       <c r="AG21" t="s">
-        <v>777</v>
+        <v>803</v>
       </c>
       <c r="AH21" t="s">
-        <v>778</v>
+        <v>337</v>
       </c>
       <c r="AI21" t="s">
-        <v>335</v>
+        <v>804</v>
       </c>
       <c r="AJ21" t="s">
-        <v>779</v>
+        <v>805</v>
       </c>
       <c r="AK21" t="s">
-        <v>780</v>
+        <v>806</v>
       </c>
       <c r="AL21" t="s">
-        <v>781</v>
+        <v>807</v>
       </c>
       <c r="AM21" t="s">
-        <v>782</v>
+        <v>808</v>
       </c>
       <c r="AN21" t="s">
-        <v>783</v>
+        <v>809</v>
       </c>
       <c r="AO21" t="s">
-        <v>784</v>
+        <v>810</v>
       </c>
       <c r="AP21" t="s">
-        <v>785</v>
+        <v>811</v>
       </c>
       <c r="AQ21" t="s">
-        <v>786</v>
+        <v>812</v>
       </c>
       <c r="AR21" t="s">
-        <v>787</v>
+        <v>813</v>
       </c>
       <c r="AS21" t="s">
-        <v>788</v>
+        <v>337</v>
       </c>
       <c r="AT21" t="s">
-        <v>789</v>
+        <v>814</v>
       </c>
       <c r="AU21" t="s">
-        <v>790</v>
+        <v>815</v>
       </c>
       <c r="AV21" t="s">
-        <v>791</v>
+        <v>337</v>
       </c>
       <c r="AW21" t="s">
-        <v>792</v>
+        <v>816</v>
       </c>
       <c r="AX21" t="s">
-        <v>793</v>
+        <v>817</v>
       </c>
       <c r="AY21" t="s">
-        <v>794</v>
+        <v>818</v>
       </c>
       <c r="AZ21" t="s">
-        <v>795</v>
+        <v>819</v>
       </c>
       <c r="BA21" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="BB21" t="s">
-        <v>797</v>
+        <v>821</v>
       </c>
       <c r="BC21" t="s">
-        <v>798</v>
+        <v>822</v>
       </c>
       <c r="BD21" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
       <c r="BE21" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
       <c r="BF21" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>802</v>
+        <v>826</v>
       </c>
       <c r="B22" t="s">
         <v>330</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="E22" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
       <c r="F22" t="s">
         <v>333</v>
@@ -7737,171 +7851,171 @@
       </c>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="J22" t="s">
-        <v>806</v>
+        <v>830</v>
       </c>
       <c r="K22" t="s">
-        <v>807</v>
+        <v>337</v>
       </c>
       <c r="L22" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
       <c r="M22" t="s">
-        <v>809</v>
+        <v>832</v>
       </c>
       <c r="N22" t="s">
-        <v>810</v>
+        <v>833</v>
       </c>
       <c r="O22" t="s">
-        <v>811</v>
+        <v>834</v>
       </c>
       <c r="P22" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="Q22" t="s">
-        <v>335</v>
+        <v>836</v>
       </c>
       <c r="R22" t="s">
-        <v>813</v>
+        <v>837</v>
       </c>
       <c r="S22" t="s">
-        <v>814</v>
+        <v>838</v>
       </c>
       <c r="T22" t="s">
-        <v>815</v>
+        <v>839</v>
       </c>
       <c r="U22" t="s">
-        <v>335</v>
+        <v>840</v>
       </c>
       <c r="V22" t="s">
-        <v>816</v>
+        <v>841</v>
       </c>
       <c r="W22" t="s">
-        <v>817</v>
+        <v>842</v>
       </c>
       <c r="X22" t="s">
-        <v>818</v>
+        <v>843</v>
       </c>
       <c r="Y22" t="s">
-        <v>335</v>
+        <v>844</v>
       </c>
       <c r="Z22" t="s">
-        <v>819</v>
+        <v>845</v>
       </c>
       <c r="AA22" t="s">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="AB22" t="s">
-        <v>821</v>
+        <v>847</v>
       </c>
       <c r="AC22" t="s">
-        <v>822</v>
+        <v>848</v>
       </c>
       <c r="AD22" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AE22" t="s">
-        <v>823</v>
+        <v>849</v>
       </c>
       <c r="AF22" t="s">
-        <v>824</v>
+        <v>850</v>
       </c>
       <c r="AG22" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AH22" t="s">
-        <v>825</v>
+        <v>851</v>
       </c>
       <c r="AI22" t="s">
-        <v>826</v>
+        <v>852</v>
       </c>
       <c r="AJ22" t="s">
-        <v>827</v>
+        <v>853</v>
       </c>
       <c r="AK22" t="s">
-        <v>828</v>
+        <v>337</v>
       </c>
       <c r="AL22" t="s">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="AM22" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="AN22" t="s">
-        <v>335</v>
+        <v>856</v>
       </c>
       <c r="AO22" t="s">
-        <v>831</v>
+        <v>337</v>
       </c>
       <c r="AP22" t="s">
-        <v>832</v>
+        <v>857</v>
       </c>
       <c r="AQ22" t="s">
-        <v>833</v>
+        <v>858</v>
       </c>
       <c r="AR22" t="s">
-        <v>834</v>
+        <v>859</v>
       </c>
       <c r="AS22" t="s">
-        <v>835</v>
+        <v>860</v>
       </c>
       <c r="AT22" t="s">
-        <v>836</v>
+        <v>861</v>
       </c>
       <c r="AU22" t="s">
-        <v>837</v>
+        <v>862</v>
       </c>
       <c r="AV22" t="s">
-        <v>335</v>
+        <v>863</v>
       </c>
       <c r="AW22" t="s">
-        <v>838</v>
+        <v>864</v>
       </c>
       <c r="AX22" t="s">
-        <v>839</v>
+        <v>865</v>
       </c>
       <c r="AY22" t="s">
-        <v>840</v>
+        <v>866</v>
       </c>
       <c r="AZ22" t="s">
-        <v>841</v>
+        <v>867</v>
       </c>
       <c r="BA22" t="s">
-        <v>842</v>
+        <v>868</v>
       </c>
       <c r="BB22" t="s">
-        <v>843</v>
+        <v>869</v>
       </c>
       <c r="BC22" t="s">
-        <v>844</v>
+        <v>870</v>
       </c>
       <c r="BD22" t="s">
-        <v>845</v>
+        <v>871</v>
       </c>
       <c r="BE22" t="s">
-        <v>335</v>
+        <v>872</v>
       </c>
       <c r="BF22" t="s">
-        <v>846</v>
+        <v>873</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>847</v>
+        <v>874</v>
       </c>
       <c r="B23" t="s">
         <v>330</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>848</v>
+        <v>875</v>
       </c>
       <c r="E23" t="s">
-        <v>849</v>
+        <v>876</v>
       </c>
       <c r="F23" t="s">
         <v>333</v>
@@ -7911,171 +8025,171 @@
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>850</v>
+        <v>877</v>
       </c>
       <c r="J23" t="s">
-        <v>851</v>
+        <v>878</v>
       </c>
       <c r="K23" t="s">
-        <v>852</v>
+        <v>879</v>
       </c>
       <c r="L23" t="s">
-        <v>853</v>
+        <v>880</v>
       </c>
       <c r="M23" t="s">
-        <v>854</v>
+        <v>881</v>
       </c>
       <c r="N23" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O23" t="s">
-        <v>855</v>
+        <v>337</v>
       </c>
       <c r="P23" t="s">
-        <v>856</v>
+        <v>882</v>
       </c>
       <c r="Q23" t="s">
-        <v>857</v>
+        <v>883</v>
       </c>
       <c r="R23" t="s">
-        <v>858</v>
+        <v>884</v>
       </c>
       <c r="S23" t="s">
-        <v>859</v>
+        <v>885</v>
       </c>
       <c r="T23" t="s">
-        <v>860</v>
+        <v>886</v>
       </c>
       <c r="U23" t="s">
-        <v>335</v>
+        <v>887</v>
       </c>
       <c r="V23" t="s">
-        <v>861</v>
+        <v>888</v>
       </c>
       <c r="W23" t="s">
-        <v>862</v>
+        <v>889</v>
       </c>
       <c r="X23" t="s">
-        <v>863</v>
+        <v>890</v>
       </c>
       <c r="Y23" t="s">
-        <v>864</v>
+        <v>891</v>
       </c>
       <c r="Z23" t="s">
-        <v>865</v>
+        <v>892</v>
       </c>
       <c r="AA23" t="s">
-        <v>866</v>
+        <v>893</v>
       </c>
       <c r="AB23" t="s">
-        <v>335</v>
+        <v>894</v>
       </c>
       <c r="AC23" t="s">
-        <v>867</v>
+        <v>895</v>
       </c>
       <c r="AD23" t="s">
-        <v>868</v>
+        <v>896</v>
       </c>
       <c r="AE23" t="s">
-        <v>869</v>
+        <v>897</v>
       </c>
       <c r="AF23" t="s">
-        <v>870</v>
+        <v>898</v>
       </c>
       <c r="AG23" t="s">
-        <v>871</v>
+        <v>899</v>
       </c>
       <c r="AH23" t="s">
-        <v>872</v>
+        <v>900</v>
       </c>
       <c r="AI23" t="s">
-        <v>873</v>
+        <v>337</v>
       </c>
       <c r="AJ23" t="s">
-        <v>874</v>
+        <v>901</v>
       </c>
       <c r="AK23" t="s">
-        <v>875</v>
+        <v>902</v>
       </c>
       <c r="AL23" t="s">
-        <v>335</v>
+        <v>903</v>
       </c>
       <c r="AM23" t="s">
-        <v>876</v>
+        <v>904</v>
       </c>
       <c r="AN23" t="s">
-        <v>877</v>
+        <v>905</v>
       </c>
       <c r="AO23" t="s">
-        <v>878</v>
+        <v>906</v>
       </c>
       <c r="AP23" t="s">
-        <v>879</v>
+        <v>907</v>
       </c>
       <c r="AQ23" t="s">
-        <v>880</v>
+        <v>908</v>
       </c>
       <c r="AR23" t="s">
-        <v>881</v>
+        <v>909</v>
       </c>
       <c r="AS23" t="s">
-        <v>882</v>
+        <v>910</v>
       </c>
       <c r="AT23" t="s">
-        <v>883</v>
+        <v>911</v>
       </c>
       <c r="AU23" t="s">
-        <v>884</v>
+        <v>912</v>
       </c>
       <c r="AV23" t="s">
-        <v>885</v>
+        <v>913</v>
       </c>
       <c r="AW23" t="s">
-        <v>886</v>
+        <v>914</v>
       </c>
       <c r="AX23" t="s">
-        <v>887</v>
+        <v>915</v>
       </c>
       <c r="AY23" t="s">
-        <v>888</v>
+        <v>916</v>
       </c>
       <c r="AZ23" t="s">
-        <v>889</v>
+        <v>917</v>
       </c>
       <c r="BA23" t="s">
-        <v>890</v>
+        <v>918</v>
       </c>
       <c r="BB23" t="s">
-        <v>891</v>
+        <v>919</v>
       </c>
       <c r="BC23" t="s">
-        <v>892</v>
+        <v>920</v>
       </c>
       <c r="BD23" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="BE23" t="s">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="BF23" t="s">
-        <v>895</v>
+        <v>923</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>896</v>
+        <v>924</v>
       </c>
       <c r="B24" t="s">
         <v>330</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
       <c r="E24" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
       <c r="F24" t="s">
         <v>333</v>
@@ -8085,171 +8199,171 @@
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>899</v>
+        <v>927</v>
       </c>
       <c r="J24" t="s">
-        <v>900</v>
+        <v>928</v>
       </c>
       <c r="K24" t="s">
-        <v>335</v>
+        <v>929</v>
       </c>
       <c r="L24" t="s">
-        <v>335</v>
+        <v>930</v>
       </c>
       <c r="M24" t="s">
-        <v>335</v>
+        <v>931</v>
       </c>
       <c r="N24" t="s">
-        <v>901</v>
+        <v>337</v>
       </c>
       <c r="O24" t="s">
-        <v>902</v>
+        <v>932</v>
       </c>
       <c r="P24" t="s">
-        <v>903</v>
+        <v>933</v>
       </c>
       <c r="Q24" t="s">
-        <v>904</v>
+        <v>934</v>
       </c>
       <c r="R24" t="s">
-        <v>905</v>
+        <v>935</v>
       </c>
       <c r="S24" t="s">
-        <v>906</v>
+        <v>936</v>
       </c>
       <c r="T24" t="s">
-        <v>907</v>
+        <v>937</v>
       </c>
       <c r="U24" t="s">
-        <v>908</v>
+        <v>938</v>
       </c>
       <c r="V24" t="s">
-        <v>909</v>
+        <v>939</v>
       </c>
       <c r="W24" t="s">
-        <v>910</v>
+        <v>940</v>
       </c>
       <c r="X24" t="s">
-        <v>911</v>
+        <v>941</v>
       </c>
       <c r="Y24" t="s">
-        <v>912</v>
+        <v>942</v>
       </c>
       <c r="Z24" t="s">
-        <v>913</v>
+        <v>943</v>
       </c>
       <c r="AA24" t="s">
-        <v>914</v>
+        <v>944</v>
       </c>
       <c r="AB24" t="s">
-        <v>335</v>
+        <v>945</v>
       </c>
       <c r="AC24" t="s">
-        <v>915</v>
+        <v>946</v>
       </c>
       <c r="AD24" t="s">
-        <v>916</v>
+        <v>947</v>
       </c>
       <c r="AE24" t="s">
-        <v>917</v>
+        <v>948</v>
       </c>
       <c r="AF24" t="s">
-        <v>918</v>
+        <v>949</v>
       </c>
       <c r="AG24" t="s">
-        <v>919</v>
+        <v>950</v>
       </c>
       <c r="AH24" t="s">
-        <v>920</v>
+        <v>951</v>
       </c>
       <c r="AI24" t="s">
-        <v>921</v>
+        <v>952</v>
       </c>
       <c r="AJ24" t="s">
-        <v>922</v>
+        <v>953</v>
       </c>
       <c r="AK24" t="s">
-        <v>923</v>
+        <v>954</v>
       </c>
       <c r="AL24" t="s">
-        <v>924</v>
+        <v>955</v>
       </c>
       <c r="AM24" t="s">
-        <v>925</v>
+        <v>337</v>
       </c>
       <c r="AN24" t="s">
-        <v>926</v>
+        <v>956</v>
       </c>
       <c r="AO24" t="s">
-        <v>335</v>
+        <v>957</v>
       </c>
       <c r="AP24" t="s">
-        <v>927</v>
+        <v>958</v>
       </c>
       <c r="AQ24" t="s">
-        <v>928</v>
+        <v>959</v>
       </c>
       <c r="AR24" t="s">
-        <v>929</v>
+        <v>960</v>
       </c>
       <c r="AS24" t="s">
-        <v>930</v>
+        <v>961</v>
       </c>
       <c r="AT24" t="s">
-        <v>931</v>
+        <v>962</v>
       </c>
       <c r="AU24" t="s">
-        <v>932</v>
+        <v>337</v>
       </c>
       <c r="AV24" t="s">
-        <v>933</v>
+        <v>963</v>
       </c>
       <c r="AW24" t="s">
-        <v>934</v>
+        <v>964</v>
       </c>
       <c r="AX24" t="s">
-        <v>935</v>
+        <v>965</v>
       </c>
       <c r="AY24" t="s">
-        <v>936</v>
+        <v>966</v>
       </c>
       <c r="AZ24" t="s">
-        <v>937</v>
+        <v>967</v>
       </c>
       <c r="BA24" t="s">
-        <v>938</v>
+        <v>968</v>
       </c>
       <c r="BB24" t="s">
-        <v>939</v>
+        <v>969</v>
       </c>
       <c r="BC24" t="s">
-        <v>940</v>
+        <v>970</v>
       </c>
       <c r="BD24" t="s">
-        <v>941</v>
+        <v>971</v>
       </c>
       <c r="BE24" t="s">
-        <v>942</v>
+        <v>972</v>
       </c>
       <c r="BF24" t="s">
-        <v>943</v>
+        <v>973</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>944</v>
+        <v>974</v>
       </c>
       <c r="B25" t="s">
         <v>330</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>945</v>
+        <v>975</v>
       </c>
       <c r="E25" t="s">
-        <v>946</v>
+        <v>976</v>
       </c>
       <c r="F25" t="s">
         <v>333</v>
@@ -8259,171 +8373,171 @@
       </c>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>947</v>
+        <v>977</v>
       </c>
       <c r="J25" t="s">
-        <v>948</v>
+        <v>337</v>
       </c>
       <c r="K25" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="L25" t="s">
-        <v>950</v>
+        <v>979</v>
       </c>
       <c r="M25" t="s">
-        <v>335</v>
+        <v>980</v>
       </c>
       <c r="N25" t="s">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="O25" t="s">
-        <v>952</v>
+        <v>337</v>
       </c>
       <c r="P25" t="s">
-        <v>953</v>
+        <v>337</v>
       </c>
       <c r="Q25" t="s">
-        <v>954</v>
+        <v>982</v>
       </c>
       <c r="R25" t="s">
-        <v>955</v>
+        <v>983</v>
       </c>
       <c r="S25" t="s">
-        <v>956</v>
+        <v>984</v>
       </c>
       <c r="T25" t="s">
-        <v>957</v>
+        <v>985</v>
       </c>
       <c r="U25" t="s">
-        <v>958</v>
+        <v>986</v>
       </c>
       <c r="V25" t="s">
-        <v>959</v>
+        <v>987</v>
       </c>
       <c r="W25" t="s">
-        <v>960</v>
+        <v>337</v>
       </c>
       <c r="X25" t="s">
-        <v>961</v>
+        <v>988</v>
       </c>
       <c r="Y25" t="s">
-        <v>335</v>
+        <v>989</v>
       </c>
       <c r="Z25" t="s">
-        <v>962</v>
+        <v>990</v>
       </c>
       <c r="AA25" t="s">
-        <v>335</v>
+        <v>991</v>
       </c>
       <c r="AB25" t="s">
-        <v>963</v>
+        <v>992</v>
       </c>
       <c r="AC25" t="s">
-        <v>964</v>
+        <v>993</v>
       </c>
       <c r="AD25" t="s">
-        <v>965</v>
+        <v>994</v>
       </c>
       <c r="AE25" t="s">
-        <v>966</v>
+        <v>995</v>
       </c>
       <c r="AF25" t="s">
-        <v>967</v>
+        <v>996</v>
       </c>
       <c r="AG25" t="s">
-        <v>968</v>
+        <v>997</v>
       </c>
       <c r="AH25" t="s">
-        <v>969</v>
+        <v>998</v>
       </c>
       <c r="AI25" t="s">
-        <v>970</v>
+        <v>999</v>
       </c>
       <c r="AJ25" t="s">
-        <v>971</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="s">
-        <v>972</v>
+        <v>1001</v>
       </c>
       <c r="AL25" t="s">
-        <v>973</v>
+        <v>1002</v>
       </c>
       <c r="AM25" t="s">
-        <v>974</v>
+        <v>1003</v>
       </c>
       <c r="AN25" t="s">
-        <v>975</v>
+        <v>1004</v>
       </c>
       <c r="AO25" t="s">
-        <v>976</v>
+        <v>1005</v>
       </c>
       <c r="AP25" t="s">
-        <v>977</v>
+        <v>1006</v>
       </c>
       <c r="AQ25" t="s">
-        <v>978</v>
+        <v>1007</v>
       </c>
       <c r="AR25" t="s">
-        <v>979</v>
+        <v>1008</v>
       </c>
       <c r="AS25" t="s">
-        <v>980</v>
+        <v>1009</v>
       </c>
       <c r="AT25" t="s">
-        <v>981</v>
+        <v>1010</v>
       </c>
       <c r="AU25" t="s">
-        <v>982</v>
+        <v>1011</v>
       </c>
       <c r="AV25" t="s">
-        <v>983</v>
+        <v>1012</v>
       </c>
       <c r="AW25" t="s">
-        <v>984</v>
+        <v>1013</v>
       </c>
       <c r="AX25" t="s">
-        <v>985</v>
+        <v>337</v>
       </c>
       <c r="AY25" t="s">
-        <v>986</v>
+        <v>1014</v>
       </c>
       <c r="AZ25" t="s">
-        <v>987</v>
+        <v>1015</v>
       </c>
       <c r="BA25" t="s">
-        <v>988</v>
+        <v>1016</v>
       </c>
       <c r="BB25" t="s">
-        <v>989</v>
+        <v>1017</v>
       </c>
       <c r="BC25" t="s">
-        <v>990</v>
+        <v>1018</v>
       </c>
       <c r="BD25" t="s">
-        <v>991</v>
+        <v>1019</v>
       </c>
       <c r="BE25" t="s">
-        <v>335</v>
+        <v>1020</v>
       </c>
       <c r="BF25" t="s">
-        <v>335</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>992</v>
+        <v>1022</v>
       </c>
       <c r="B26" t="s">
         <v>330</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>993</v>
+        <v>1023</v>
       </c>
       <c r="E26" t="s">
-        <v>994</v>
+        <v>1024</v>
       </c>
       <c r="F26" t="s">
         <v>333</v>
@@ -8433,171 +8547,171 @@
       </c>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>995</v>
+        <v>1025</v>
       </c>
       <c r="J26" t="s">
-        <v>996</v>
+        <v>1026</v>
       </c>
       <c r="K26" t="s">
-        <v>997</v>
+        <v>1027</v>
       </c>
       <c r="L26" t="s">
-        <v>998</v>
+        <v>1028</v>
       </c>
       <c r="M26" t="s">
-        <v>999</v>
+        <v>1029</v>
       </c>
       <c r="N26" t="s">
-        <v>1000</v>
+        <v>1030</v>
       </c>
       <c r="O26" t="s">
-        <v>1001</v>
+        <v>1031</v>
       </c>
       <c r="P26" t="s">
-        <v>1002</v>
+        <v>1032</v>
       </c>
       <c r="Q26" t="s">
-        <v>1003</v>
+        <v>1033</v>
       </c>
       <c r="R26" t="s">
-        <v>1004</v>
+        <v>1034</v>
       </c>
       <c r="S26" t="s">
-        <v>1005</v>
+        <v>1035</v>
       </c>
       <c r="T26" t="s">
-        <v>1006</v>
+        <v>1036</v>
       </c>
       <c r="U26" t="s">
-        <v>1007</v>
+        <v>1037</v>
       </c>
       <c r="V26" t="s">
-        <v>1008</v>
+        <v>1038</v>
       </c>
       <c r="W26" t="s">
-        <v>1009</v>
+        <v>1039</v>
       </c>
       <c r="X26" t="s">
-        <v>1010</v>
+        <v>1040</v>
       </c>
       <c r="Y26" t="s">
-        <v>1011</v>
+        <v>1041</v>
       </c>
       <c r="Z26" t="s">
-        <v>1012</v>
+        <v>1042</v>
       </c>
       <c r="AA26" t="s">
-        <v>335</v>
+        <v>1043</v>
       </c>
       <c r="AB26" t="s">
-        <v>1013</v>
+        <v>1044</v>
       </c>
       <c r="AC26" t="s">
-        <v>1014</v>
+        <v>1045</v>
       </c>
       <c r="AD26" t="s">
-        <v>1015</v>
+        <v>1046</v>
       </c>
       <c r="AE26" t="s">
-        <v>1016</v>
+        <v>1047</v>
       </c>
       <c r="AF26" t="s">
-        <v>1017</v>
+        <v>1048</v>
       </c>
       <c r="AG26" t="s">
-        <v>1018</v>
+        <v>1049</v>
       </c>
       <c r="AH26" t="s">
-        <v>1019</v>
+        <v>1050</v>
       </c>
       <c r="AI26" t="s">
-        <v>1020</v>
+        <v>1051</v>
       </c>
       <c r="AJ26" t="s">
-        <v>1021</v>
+        <v>1052</v>
       </c>
       <c r="AK26" t="s">
-        <v>1022</v>
+        <v>1053</v>
       </c>
       <c r="AL26" t="s">
-        <v>1023</v>
+        <v>1054</v>
       </c>
       <c r="AM26" t="s">
-        <v>1024</v>
+        <v>1055</v>
       </c>
       <c r="AN26" t="s">
-        <v>1025</v>
+        <v>1056</v>
       </c>
       <c r="AO26" t="s">
-        <v>1026</v>
+        <v>1057</v>
       </c>
       <c r="AP26" t="s">
-        <v>1027</v>
+        <v>1058</v>
       </c>
       <c r="AQ26" t="s">
-        <v>1028</v>
+        <v>1059</v>
       </c>
       <c r="AR26" t="s">
-        <v>1029</v>
+        <v>1060</v>
       </c>
       <c r="AS26" t="s">
-        <v>1030</v>
+        <v>1061</v>
       </c>
       <c r="AT26" t="s">
-        <v>1031</v>
+        <v>1062</v>
       </c>
       <c r="AU26" t="s">
-        <v>335</v>
+        <v>1063</v>
       </c>
       <c r="AV26" t="s">
-        <v>1032</v>
+        <v>1064</v>
       </c>
       <c r="AW26" t="s">
-        <v>1033</v>
+        <v>1065</v>
       </c>
       <c r="AX26" t="s">
-        <v>1034</v>
+        <v>1066</v>
       </c>
       <c r="AY26" t="s">
-        <v>1035</v>
+        <v>1067</v>
       </c>
       <c r="AZ26" t="s">
-        <v>1036</v>
+        <v>1068</v>
       </c>
       <c r="BA26" t="s">
-        <v>1037</v>
+        <v>1069</v>
       </c>
       <c r="BB26" t="s">
-        <v>1038</v>
+        <v>1070</v>
       </c>
       <c r="BC26" t="s">
-        <v>1039</v>
+        <v>1071</v>
       </c>
       <c r="BD26" t="s">
-        <v>1040</v>
+        <v>1072</v>
       </c>
       <c r="BE26" t="s">
-        <v>1041</v>
+        <v>1073</v>
       </c>
       <c r="BF26" t="s">
-        <v>1042</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1043</v>
+        <v>1075</v>
       </c>
       <c r="B27" t="s">
         <v>330</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>1044</v>
+        <v>1076</v>
       </c>
       <c r="E27" t="s">
-        <v>1045</v>
+        <v>1077</v>
       </c>
       <c r="F27" t="s">
         <v>333</v>
@@ -8607,171 +8721,171 @@
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>1046</v>
+        <v>1078</v>
       </c>
       <c r="J27" t="s">
-        <v>1047</v>
+        <v>1079</v>
       </c>
       <c r="K27" t="s">
-        <v>1048</v>
+        <v>1080</v>
       </c>
       <c r="L27" t="s">
-        <v>1049</v>
+        <v>1081</v>
       </c>
       <c r="M27" t="s">
-        <v>335</v>
+        <v>1082</v>
       </c>
       <c r="N27" t="s">
-        <v>1050</v>
+        <v>1083</v>
       </c>
       <c r="O27" t="s">
-        <v>1051</v>
+        <v>1084</v>
       </c>
       <c r="P27" t="s">
-        <v>1052</v>
+        <v>337</v>
       </c>
       <c r="Q27" t="s">
-        <v>335</v>
+        <v>1085</v>
       </c>
       <c r="R27" t="s">
-        <v>1053</v>
+        <v>1086</v>
       </c>
       <c r="S27" t="s">
-        <v>1054</v>
+        <v>1087</v>
       </c>
       <c r="T27" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="U27" t="s">
-        <v>1055</v>
+        <v>1088</v>
       </c>
       <c r="V27" t="s">
-        <v>1056</v>
+        <v>1089</v>
       </c>
       <c r="W27" t="s">
-        <v>1057</v>
+        <v>1090</v>
       </c>
       <c r="X27" t="s">
-        <v>1058</v>
+        <v>1091</v>
       </c>
       <c r="Y27" t="s">
-        <v>1059</v>
+        <v>1092</v>
       </c>
       <c r="Z27" t="s">
-        <v>1060</v>
+        <v>1093</v>
       </c>
       <c r="AA27" t="s">
-        <v>1061</v>
+        <v>337</v>
       </c>
       <c r="AB27" t="s">
-        <v>1062</v>
+        <v>1094</v>
       </c>
       <c r="AC27" t="s">
-        <v>1063</v>
+        <v>1095</v>
       </c>
       <c r="AD27" t="s">
-        <v>1064</v>
+        <v>1096</v>
       </c>
       <c r="AE27" t="s">
-        <v>1065</v>
+        <v>1097</v>
       </c>
       <c r="AF27" t="s">
-        <v>1066</v>
+        <v>1098</v>
       </c>
       <c r="AG27" t="s">
-        <v>1067</v>
+        <v>1099</v>
       </c>
       <c r="AH27" t="s">
-        <v>1068</v>
+        <v>1100</v>
       </c>
       <c r="AI27" t="s">
-        <v>1069</v>
+        <v>1101</v>
       </c>
       <c r="AJ27" t="s">
-        <v>1070</v>
+        <v>1102</v>
       </c>
       <c r="AK27" t="s">
-        <v>1071</v>
+        <v>1103</v>
       </c>
       <c r="AL27" t="s">
-        <v>1072</v>
+        <v>1104</v>
       </c>
       <c r="AM27" t="s">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="AN27" t="s">
-        <v>1074</v>
+        <v>1106</v>
       </c>
       <c r="AO27" t="s">
-        <v>1075</v>
+        <v>1107</v>
       </c>
       <c r="AP27" t="s">
-        <v>1076</v>
+        <v>1108</v>
       </c>
       <c r="AQ27" t="s">
-        <v>1077</v>
+        <v>1109</v>
       </c>
       <c r="AR27" t="s">
-        <v>1078</v>
+        <v>1110</v>
       </c>
       <c r="AS27" t="s">
-        <v>1079</v>
+        <v>1111</v>
       </c>
       <c r="AT27" t="s">
-        <v>1080</v>
+        <v>1112</v>
       </c>
       <c r="AU27" t="s">
-        <v>335</v>
+        <v>1113</v>
       </c>
       <c r="AV27" t="s">
-        <v>1081</v>
+        <v>1114</v>
       </c>
       <c r="AW27" t="s">
-        <v>1082</v>
+        <v>1115</v>
       </c>
       <c r="AX27" t="s">
-        <v>335</v>
+        <v>1116</v>
       </c>
       <c r="AY27" t="s">
-        <v>1083</v>
+        <v>1117</v>
       </c>
       <c r="AZ27" t="s">
-        <v>1084</v>
+        <v>1118</v>
       </c>
       <c r="BA27" t="s">
-        <v>1085</v>
+        <v>1119</v>
       </c>
       <c r="BB27" t="s">
-        <v>1086</v>
+        <v>1120</v>
       </c>
       <c r="BC27" t="s">
-        <v>1087</v>
+        <v>1121</v>
       </c>
       <c r="BD27" t="s">
-        <v>1088</v>
+        <v>1122</v>
       </c>
       <c r="BE27" t="s">
-        <v>1089</v>
+        <v>1123</v>
       </c>
       <c r="BF27" t="s">
-        <v>1090</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1091</v>
+        <v>1125</v>
       </c>
       <c r="B28" t="s">
         <v>330</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>1092</v>
+        <v>1126</v>
       </c>
       <c r="E28" t="s">
-        <v>1093</v>
+        <v>1127</v>
       </c>
       <c r="F28" t="s">
         <v>333</v>
@@ -8781,171 +8895,171 @@
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>335</v>
+        <v>1128</v>
       </c>
       <c r="J28" t="s">
-        <v>1094</v>
+        <v>1129</v>
       </c>
       <c r="K28" t="s">
-        <v>1095</v>
+        <v>1130</v>
       </c>
       <c r="L28" t="s">
-        <v>1096</v>
+        <v>1131</v>
       </c>
       <c r="M28" t="s">
-        <v>1097</v>
+        <v>1132</v>
       </c>
       <c r="N28" t="s">
-        <v>1098</v>
+        <v>1133</v>
       </c>
       <c r="O28" t="s">
-        <v>1099</v>
+        <v>1134</v>
       </c>
       <c r="P28" t="s">
-        <v>1100</v>
+        <v>1135</v>
       </c>
       <c r="Q28" t="s">
-        <v>1101</v>
+        <v>1136</v>
       </c>
       <c r="R28" t="s">
-        <v>1102</v>
+        <v>1137</v>
       </c>
       <c r="S28" t="s">
-        <v>1103</v>
+        <v>1138</v>
       </c>
       <c r="T28" t="s">
-        <v>1104</v>
+        <v>1139</v>
       </c>
       <c r="U28" t="s">
-        <v>335</v>
+        <v>1140</v>
       </c>
       <c r="V28" t="s">
-        <v>1105</v>
+        <v>1141</v>
       </c>
       <c r="W28" t="s">
-        <v>335</v>
+        <v>1142</v>
       </c>
       <c r="X28" t="s">
-        <v>1106</v>
+        <v>1143</v>
       </c>
       <c r="Y28" t="s">
-        <v>335</v>
+        <v>1144</v>
       </c>
       <c r="Z28" t="s">
-        <v>1107</v>
+        <v>337</v>
       </c>
       <c r="AA28" t="s">
-        <v>1108</v>
+        <v>1145</v>
       </c>
       <c r="AB28" t="s">
-        <v>1109</v>
+        <v>1146</v>
       </c>
       <c r="AC28" t="s">
-        <v>1110</v>
+        <v>1147</v>
       </c>
       <c r="AD28" t="s">
-        <v>1111</v>
+        <v>1148</v>
       </c>
       <c r="AE28" t="s">
-        <v>1112</v>
+        <v>1149</v>
       </c>
       <c r="AF28" t="s">
-        <v>1113</v>
+        <v>1150</v>
       </c>
       <c r="AG28" t="s">
-        <v>1114</v>
+        <v>1151</v>
       </c>
       <c r="AH28" t="s">
-        <v>335</v>
+        <v>1152</v>
       </c>
       <c r="AI28" t="s">
-        <v>1115</v>
+        <v>1153</v>
       </c>
       <c r="AJ28" t="s">
-        <v>1116</v>
+        <v>337</v>
       </c>
       <c r="AK28" t="s">
-        <v>1117</v>
+        <v>1154</v>
       </c>
       <c r="AL28" t="s">
-        <v>1118</v>
+        <v>1155</v>
       </c>
       <c r="AM28" t="s">
-        <v>1119</v>
+        <v>1156</v>
       </c>
       <c r="AN28" t="s">
-        <v>1120</v>
+        <v>1157</v>
       </c>
       <c r="AO28" t="s">
-        <v>1121</v>
+        <v>1158</v>
       </c>
       <c r="AP28" t="s">
-        <v>1122</v>
+        <v>1159</v>
       </c>
       <c r="AQ28" t="s">
-        <v>1123</v>
+        <v>1160</v>
       </c>
       <c r="AR28" t="s">
-        <v>1124</v>
+        <v>1161</v>
       </c>
       <c r="AS28" t="s">
-        <v>1125</v>
+        <v>1162</v>
       </c>
       <c r="AT28" t="s">
-        <v>1126</v>
+        <v>1163</v>
       </c>
       <c r="AU28" t="s">
-        <v>1127</v>
+        <v>1164</v>
       </c>
       <c r="AV28" t="s">
-        <v>1128</v>
+        <v>337</v>
       </c>
       <c r="AW28" t="s">
-        <v>1129</v>
+        <v>1165</v>
       </c>
       <c r="AX28" t="s">
-        <v>1130</v>
+        <v>1166</v>
       </c>
       <c r="AY28" t="s">
-        <v>1131</v>
+        <v>1167</v>
       </c>
       <c r="AZ28" t="s">
-        <v>1132</v>
+        <v>1168</v>
       </c>
       <c r="BA28" t="s">
-        <v>1133</v>
+        <v>337</v>
       </c>
       <c r="BB28" t="s">
-        <v>1134</v>
+        <v>337</v>
       </c>
       <c r="BC28" t="s">
-        <v>1135</v>
+        <v>1169</v>
       </c>
       <c r="BD28" t="s">
-        <v>1136</v>
+        <v>1170</v>
       </c>
       <c r="BE28" t="s">
-        <v>1137</v>
+        <v>1171</v>
       </c>
       <c r="BF28" t="s">
-        <v>1138</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1139</v>
+        <v>1173</v>
       </c>
       <c r="B29" t="s">
         <v>330</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>1140</v>
+        <v>1174</v>
       </c>
       <c r="E29" t="s">
-        <v>1141</v>
+        <v>1175</v>
       </c>
       <c r="F29" t="s">
         <v>333</v>
@@ -8955,171 +9069,171 @@
       </c>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>1142</v>
+        <v>1176</v>
       </c>
       <c r="J29" t="s">
-        <v>1143</v>
+        <v>1177</v>
       </c>
       <c r="K29" t="s">
-        <v>1144</v>
+        <v>1178</v>
       </c>
       <c r="L29" t="s">
-        <v>1145</v>
+        <v>1179</v>
       </c>
       <c r="M29" t="s">
-        <v>1146</v>
+        <v>1180</v>
       </c>
       <c r="N29" t="s">
-        <v>335</v>
+        <v>1181</v>
       </c>
       <c r="O29" t="s">
-        <v>1147</v>
+        <v>1182</v>
       </c>
       <c r="P29" t="s">
-        <v>1148</v>
+        <v>1183</v>
       </c>
       <c r="Q29" t="s">
-        <v>1149</v>
+        <v>1184</v>
       </c>
       <c r="R29" t="s">
-        <v>1150</v>
+        <v>1185</v>
       </c>
       <c r="S29" t="s">
-        <v>1151</v>
+        <v>1186</v>
       </c>
       <c r="T29" t="s">
-        <v>1152</v>
+        <v>1187</v>
       </c>
       <c r="U29" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="V29" t="s">
-        <v>1153</v>
+        <v>1188</v>
       </c>
       <c r="W29" t="s">
-        <v>335</v>
+        <v>1189</v>
       </c>
       <c r="X29" t="s">
-        <v>1154</v>
+        <v>1190</v>
       </c>
       <c r="Y29" t="s">
-        <v>1155</v>
+        <v>1191</v>
       </c>
       <c r="Z29" t="s">
-        <v>1156</v>
+        <v>1192</v>
       </c>
       <c r="AA29" t="s">
-        <v>335</v>
+        <v>1193</v>
       </c>
       <c r="AB29" t="s">
-        <v>335</v>
+        <v>1194</v>
       </c>
       <c r="AC29" t="s">
-        <v>1157</v>
+        <v>1195</v>
       </c>
       <c r="AD29" t="s">
-        <v>1158</v>
+        <v>1196</v>
       </c>
       <c r="AE29" t="s">
-        <v>1159</v>
+        <v>1197</v>
       </c>
       <c r="AF29" t="s">
-        <v>1160</v>
+        <v>337</v>
       </c>
       <c r="AG29" t="s">
-        <v>1161</v>
+        <v>1198</v>
       </c>
       <c r="AH29" t="s">
-        <v>1162</v>
+        <v>337</v>
       </c>
       <c r="AI29" t="s">
-        <v>335</v>
+        <v>1199</v>
       </c>
       <c r="AJ29" t="s">
-        <v>1163</v>
+        <v>337</v>
       </c>
       <c r="AK29" t="s">
-        <v>1164</v>
+        <v>1200</v>
       </c>
       <c r="AL29" t="s">
-        <v>1165</v>
+        <v>1201</v>
       </c>
       <c r="AM29" t="s">
-        <v>1166</v>
+        <v>1202</v>
       </c>
       <c r="AN29" t="s">
-        <v>335</v>
+        <v>1203</v>
       </c>
       <c r="AO29" t="s">
-        <v>1167</v>
+        <v>1204</v>
       </c>
       <c r="AP29" t="s">
-        <v>1168</v>
+        <v>1205</v>
       </c>
       <c r="AQ29" t="s">
-        <v>335</v>
+        <v>1206</v>
       </c>
       <c r="AR29" t="s">
-        <v>1169</v>
+        <v>1207</v>
       </c>
       <c r="AS29" t="s">
-        <v>1170</v>
+        <v>1208</v>
       </c>
       <c r="AT29" t="s">
-        <v>1171</v>
+        <v>1209</v>
       </c>
       <c r="AU29" t="s">
-        <v>1172</v>
+        <v>337</v>
       </c>
       <c r="AV29" t="s">
-        <v>1173</v>
+        <v>1210</v>
       </c>
       <c r="AW29" t="s">
-        <v>335</v>
+        <v>1211</v>
       </c>
       <c r="AX29" t="s">
-        <v>1174</v>
+        <v>1212</v>
       </c>
       <c r="AY29" t="s">
-        <v>1175</v>
+        <v>1213</v>
       </c>
       <c r="AZ29" t="s">
-        <v>1176</v>
+        <v>1214</v>
       </c>
       <c r="BA29" t="s">
-        <v>1177</v>
+        <v>1215</v>
       </c>
       <c r="BB29" t="s">
-        <v>1178</v>
+        <v>1216</v>
       </c>
       <c r="BC29" t="s">
-        <v>1179</v>
+        <v>1217</v>
       </c>
       <c r="BD29" t="s">
-        <v>1180</v>
+        <v>337</v>
       </c>
       <c r="BE29" t="s">
-        <v>1181</v>
+        <v>337</v>
       </c>
       <c r="BF29" t="s">
-        <v>1182</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1183</v>
+        <v>1219</v>
       </c>
       <c r="B30" t="s">
         <v>330</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>1184</v>
+        <v>1220</v>
       </c>
       <c r="E30" t="s">
-        <v>1185</v>
+        <v>1221</v>
       </c>
       <c r="F30" t="s">
         <v>333</v>
@@ -9129,171 +9243,171 @@
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>1186</v>
+        <v>1222</v>
       </c>
       <c r="J30" t="s">
-        <v>1187</v>
+        <v>1223</v>
       </c>
       <c r="K30" t="s">
-        <v>1188</v>
+        <v>1224</v>
       </c>
       <c r="L30" t="s">
-        <v>1189</v>
+        <v>1225</v>
       </c>
       <c r="M30" t="s">
-        <v>1190</v>
+        <v>1226</v>
       </c>
       <c r="N30" t="s">
-        <v>1191</v>
+        <v>1227</v>
       </c>
       <c r="O30" t="s">
-        <v>1192</v>
+        <v>1228</v>
       </c>
       <c r="P30" t="s">
-        <v>1193</v>
+        <v>1229</v>
       </c>
       <c r="Q30" t="s">
-        <v>1194</v>
+        <v>1230</v>
       </c>
       <c r="R30" t="s">
-        <v>1195</v>
+        <v>1231</v>
       </c>
       <c r="S30" t="s">
-        <v>1196</v>
+        <v>1232</v>
       </c>
       <c r="T30" t="s">
-        <v>1197</v>
+        <v>337</v>
       </c>
       <c r="U30" t="s">
-        <v>1198</v>
+        <v>1233</v>
       </c>
       <c r="V30" t="s">
-        <v>335</v>
+        <v>1234</v>
       </c>
       <c r="W30" t="s">
-        <v>1199</v>
+        <v>337</v>
       </c>
       <c r="X30" t="s">
-        <v>1200</v>
+        <v>1235</v>
       </c>
       <c r="Y30" t="s">
-        <v>335</v>
+        <v>1236</v>
       </c>
       <c r="Z30" t="s">
-        <v>1201</v>
+        <v>1237</v>
       </c>
       <c r="AA30" t="s">
-        <v>1202</v>
+        <v>337</v>
       </c>
       <c r="AB30" t="s">
-        <v>1203</v>
+        <v>1238</v>
       </c>
       <c r="AC30" t="s">
-        <v>335</v>
+        <v>1239</v>
       </c>
       <c r="AD30" t="s">
-        <v>1204</v>
+        <v>1240</v>
       </c>
       <c r="AE30" t="s">
-        <v>1205</v>
+        <v>1241</v>
       </c>
       <c r="AF30" t="s">
-        <v>1206</v>
+        <v>1242</v>
       </c>
       <c r="AG30" t="s">
-        <v>1207</v>
+        <v>1243</v>
       </c>
       <c r="AH30" t="s">
-        <v>1208</v>
+        <v>1244</v>
       </c>
       <c r="AI30" t="s">
-        <v>1209</v>
+        <v>337</v>
       </c>
       <c r="AJ30" t="s">
-        <v>1210</v>
+        <v>1245</v>
       </c>
       <c r="AK30" t="s">
-        <v>1211</v>
+        <v>1246</v>
       </c>
       <c r="AL30" t="s">
-        <v>1212</v>
+        <v>1247</v>
       </c>
       <c r="AM30" t="s">
-        <v>1213</v>
+        <v>337</v>
       </c>
       <c r="AN30" t="s">
-        <v>335</v>
+        <v>1248</v>
       </c>
       <c r="AO30" t="s">
-        <v>335</v>
+        <v>1249</v>
       </c>
       <c r="AP30" t="s">
-        <v>1214</v>
+        <v>1250</v>
       </c>
       <c r="AQ30" t="s">
-        <v>1215</v>
+        <v>1251</v>
       </c>
       <c r="AR30" t="s">
-        <v>1216</v>
+        <v>1252</v>
       </c>
       <c r="AS30" t="s">
-        <v>1217</v>
+        <v>1253</v>
       </c>
       <c r="AT30" t="s">
-        <v>1218</v>
+        <v>1254</v>
       </c>
       <c r="AU30" t="s">
-        <v>1219</v>
+        <v>1255</v>
       </c>
       <c r="AV30" t="s">
-        <v>335</v>
+        <v>1256</v>
       </c>
       <c r="AW30" t="s">
-        <v>1220</v>
+        <v>1257</v>
       </c>
       <c r="AX30" t="s">
-        <v>1221</v>
+        <v>1258</v>
       </c>
       <c r="AY30" t="s">
-        <v>335</v>
+        <v>1259</v>
       </c>
       <c r="AZ30" t="s">
-        <v>1222</v>
+        <v>1260</v>
       </c>
       <c r="BA30" t="s">
-        <v>1223</v>
+        <v>1261</v>
       </c>
       <c r="BB30" t="s">
-        <v>1224</v>
+        <v>1262</v>
       </c>
       <c r="BC30" t="s">
-        <v>335</v>
+        <v>1263</v>
       </c>
       <c r="BD30" t="s">
-        <v>1225</v>
+        <v>337</v>
       </c>
       <c r="BE30" t="s">
-        <v>1226</v>
+        <v>1264</v>
       </c>
       <c r="BF30" t="s">
-        <v>1227</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1228</v>
+        <v>1266</v>
       </c>
       <c r="B31" t="s">
         <v>330</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>1229</v>
+        <v>1267</v>
       </c>
       <c r="E31" t="s">
-        <v>1230</v>
+        <v>1268</v>
       </c>
       <c r="F31" t="s">
         <v>333</v>
@@ -9303,154 +9417,154 @@
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>1231</v>
+        <v>1269</v>
       </c>
       <c r="J31" t="s">
-        <v>1232</v>
+        <v>1270</v>
       </c>
       <c r="K31" t="s">
-        <v>1233</v>
+        <v>1271</v>
       </c>
       <c r="L31" t="s">
-        <v>1234</v>
+        <v>1272</v>
       </c>
       <c r="M31" t="s">
-        <v>1235</v>
+        <v>1273</v>
       </c>
       <c r="N31" t="s">
-        <v>1236</v>
+        <v>1274</v>
       </c>
       <c r="O31" t="s">
-        <v>1237</v>
+        <v>1275</v>
       </c>
       <c r="P31" t="s">
-        <v>1238</v>
+        <v>1276</v>
       </c>
       <c r="Q31" t="s">
-        <v>1239</v>
+        <v>1277</v>
       </c>
       <c r="R31" t="s">
-        <v>1240</v>
+        <v>1278</v>
       </c>
       <c r="S31" t="s">
-        <v>1241</v>
+        <v>1279</v>
       </c>
       <c r="T31" t="s">
-        <v>1242</v>
+        <v>1280</v>
       </c>
       <c r="U31" t="s">
-        <v>1243</v>
+        <v>1281</v>
       </c>
       <c r="V31" t="s">
-        <v>1244</v>
+        <v>1282</v>
       </c>
       <c r="W31" t="s">
-        <v>1245</v>
+        <v>1283</v>
       </c>
       <c r="X31" t="s">
-        <v>1246</v>
+        <v>1284</v>
       </c>
       <c r="Y31" t="s">
-        <v>1247</v>
+        <v>1285</v>
       </c>
       <c r="Z31" t="s">
-        <v>1248</v>
+        <v>1286</v>
       </c>
       <c r="AA31" t="s">
-        <v>1249</v>
+        <v>1287</v>
       </c>
       <c r="AB31" t="s">
-        <v>1250</v>
+        <v>1288</v>
       </c>
       <c r="AC31" t="s">
-        <v>1251</v>
+        <v>1289</v>
       </c>
       <c r="AD31" t="s">
-        <v>1252</v>
+        <v>1290</v>
       </c>
       <c r="AE31" t="s">
-        <v>1253</v>
+        <v>1291</v>
       </c>
       <c r="AF31" t="s">
-        <v>1254</v>
+        <v>1292</v>
       </c>
       <c r="AG31" t="s">
-        <v>1255</v>
+        <v>337</v>
       </c>
       <c r="AH31" t="s">
-        <v>1256</v>
+        <v>1293</v>
       </c>
       <c r="AI31" t="s">
-        <v>1257</v>
+        <v>1294</v>
       </c>
       <c r="AJ31" t="s">
-        <v>1258</v>
+        <v>1295</v>
       </c>
       <c r="AK31" t="s">
-        <v>1259</v>
+        <v>337</v>
       </c>
       <c r="AL31" t="s">
-        <v>1260</v>
+        <v>1296</v>
       </c>
       <c r="AM31" t="s">
-        <v>1261</v>
+        <v>1297</v>
       </c>
       <c r="AN31" t="s">
-        <v>335</v>
+        <v>1298</v>
       </c>
       <c r="AO31" t="s">
-        <v>1262</v>
+        <v>1299</v>
       </c>
       <c r="AP31" t="s">
-        <v>1263</v>
+        <v>1300</v>
       </c>
       <c r="AQ31" t="s">
-        <v>1264</v>
+        <v>1301</v>
       </c>
       <c r="AR31" t="s">
-        <v>1265</v>
+        <v>1302</v>
       </c>
       <c r="AS31" t="s">
-        <v>1266</v>
+        <v>1303</v>
       </c>
       <c r="AT31" t="s">
-        <v>1267</v>
+        <v>1304</v>
       </c>
       <c r="AU31" t="s">
-        <v>1268</v>
+        <v>1305</v>
       </c>
       <c r="AV31" t="s">
-        <v>1269</v>
+        <v>1306</v>
       </c>
       <c r="AW31" t="s">
-        <v>335</v>
+        <v>1307</v>
       </c>
       <c r="AX31" t="s">
-        <v>1270</v>
+        <v>337</v>
       </c>
       <c r="AY31" t="s">
-        <v>1271</v>
+        <v>1308</v>
       </c>
       <c r="AZ31" t="s">
-        <v>1272</v>
+        <v>1309</v>
       </c>
       <c r="BA31" t="s">
-        <v>1273</v>
+        <v>1310</v>
       </c>
       <c r="BB31" t="s">
-        <v>1274</v>
+        <v>1311</v>
       </c>
       <c r="BC31" t="s">
-        <v>1275</v>
+        <v>1312</v>
       </c>
       <c r="BD31" t="s">
-        <v>335</v>
+        <v>1313</v>
       </c>
       <c r="BE31" t="s">
-        <v>1276</v>
+        <v>1314</v>
       </c>
       <c r="BF31" t="s">
-        <v>1277</v>
+        <v>1315</v>
       </c>
     </row>
   </sheetData>
